--- a/OSIRIS RWD v0.9.xlsx
+++ b/OSIRIS RWD v0.9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parissaclaycancercluster.sharepoint.com/sites/02-CHANTIER/Documents partages/WP 4 - Data/OSIRIS RWD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parissaclaycancercluster.sharepoint.com/sites/02-CHANTIER/Documents partages/WP 4 - Data/04 - OSIRIS RWD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="8_{1415FA60-82E7-4C99-BF6B-1E12605D68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4176C1C7-3583-44A1-A7C2-9FF941870DD6}"/>
+  <xr:revisionPtr revIDLastSave="953" documentId="8_{1415FA60-82E7-4C99-BF6B-1E12605D68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4402D73-7A29-4C9F-8460-EB82CAC4E18A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="485">
   <si>
     <t xml:space="preserve">OSIRIS RWD - Version 0.8 –  2022 </t>
   </si>
@@ -1091,9 +1092,6 @@
 </t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>2. Information et non-opposition des patients de la création de l'EDS</t>
   </si>
   <si>
@@ -1199,22 +1197,7 @@
     <t>Date des dernières nouvelles à travers les courriers que le centre peut recevoir après la dernière visite du patient.</t>
   </si>
   <si>
-    <t>pathologie associée</t>
-  </si>
-  <si>
-    <t>Date du CR évoquant la pathologie associée</t>
-  </si>
-  <si>
     <t>5.3</t>
-  </si>
-  <si>
-    <t>Date "réelle" de la pathologie associée</t>
-  </si>
-  <si>
-    <t>Date « réelle » qui correspond plus ou moins à la date de diagnostic de la pathologie associée.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date du compte rendu qui évoque pour la 1ère fois la pathologie associée dans le dossier médical du patient. </t>
   </si>
   <si>
     <t>6.3</t>
@@ -1247,13 +1230,6 @@
 -Frère
 -Sœur
 </t>
-  </si>
-  <si>
-    <t>7'.
-Antécédents médicaux personnels</t>
-  </si>
-  <si>
-    <t>7'.1</t>
   </si>
   <si>
     <t>Pathologie connue avant le cancer</t>
@@ -1347,14 +1323,441 @@
     </r>
   </si>
   <si>
-    <t>méta</t>
+    <t xml:space="preserve">UMLS:C0677930 pour tumeur primaire
+UMLS:? pour une récidive locale 
+UMLS: ? Pour une récidive régionale
+UMLS:C2939419 pour une métastase
+UMLS ? Rechute (cancers hémato)
+UMLS ? Acutisation (cancer hémato)
+(UMLS:C0439673 pour non connu)
+</t>
+  </si>
+  <si>
+    <t>Date d’évocation de l’évènement tumoral</t>
+  </si>
+  <si>
+    <t>Date de début de l’évènement tumoral peut correspondre à la date de première évocation de l’évènement dans le dossier médical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de début de l’évènement tumoral peut correspondre à la date de confirmation du diagnostic histologique dans les comptes rendus médicaux. (date du prélèvement histologique si réalisé). </t>
+  </si>
+  <si>
+    <t>Date de début du traitement de l’évènement tumoral</t>
+  </si>
+  <si>
+    <t>La première date de traitement de l’évènement tumoral</t>
+  </si>
+  <si>
+    <t>Code histologique/ morphologique</t>
+  </si>
+  <si>
+    <t>Description morphologique de l’évènement tumoral</t>
+  </si>
+  <si>
+    <t>Code topographique des métastases</t>
+  </si>
+  <si>
+    <t>Optionnel mais obligatoire dans le cas d’évènements métastatiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localisation des métastases dans l’évènement « maladie métastatique ». </t>
+  </si>
+  <si>
+    <t>Date de découverte des métastases</t>
+  </si>
+  <si>
+    <t>Date d’apparition (de diagnostic) des métastases rattachées à un code topographique de la métastase et à son événement « maladie métastatique ».</t>
+  </si>
+  <si>
+    <t>JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>répétitif</t>
+  </si>
+  <si>
+    <t>Type de mesures</t>
+  </si>
+  <si>
+    <t>Mesures concernant l’examen physique et l’état général du patient et son autonomie</t>
+  </si>
+  <si>
+    <t>PS (Performance Status) ; Poids ; Taille ; IMC</t>
+  </si>
+  <si>
+    <t>Mesures sur l’état général</t>
+  </si>
+  <si>
+    <t>Mesures sur l’état général du patient, son autonomie et son examen physique (taille, poids)</t>
+  </si>
+  <si>
+    <t>PS (0,1,2,3,4 ); entier pour le poids et la taille ; nombre flottant (ex :18,5) pour l’IMC</t>
+  </si>
+  <si>
+    <t>Date de recueil de la mesure</t>
+  </si>
+  <si>
+    <t>La date à laquelle la mesure est recueillie</t>
+  </si>
+  <si>
+    <t>Description de l'acte chirurgical</t>
+  </si>
+  <si>
+    <t>Source de l’information du code CCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les différentes sources d’informations des codes CCAM concernant les actes chirurgicaux.</t>
+  </si>
+  <si>
+    <t>-	PMSI
+-CR médical</t>
+  </si>
+  <si>
+    <t>Occurrence de traitement</t>
+  </si>
+  <si>
+    <t>UMLS:C3665472	Chimiothérapie
+UMLS:C0279025	Hormonothérapie
+UMLS:	Inhibiteur protéines kinases
+UMLS:C0279694	Anticorps monoclonal
+UMLS:	Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code ATC </t>
+  </si>
+  <si>
+    <t>Nom de la molécule administrée hors ATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom d’une molécule hors ATC. C’est souvent le cas des molécules en phase d’essais cliniques non commercialisée. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de source de données du traitement </t>
+  </si>
+  <si>
+    <t>Le type de source est une métadonnée sur la source du code de la molécule administrée ainsi que les dates d’administration du traitement (date de début et date de fin),</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Source de données structurée (logiciel de prescription ex : CHIMIO®) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Le dossier médical du patient</t>
+    </r>
+  </si>
+  <si>
+    <t>Occurrence de traitement correspond à une séquence d’administration  d’une même molécule ou d’une même association de molécules et à intervalle plus ou moins régulier * (ex : plusieurs administrations des molécules A+B à un intervalle régulier par exemple J1 – J8 ou J1 – J15 sur plusieurs cycles = une occurrence)
+*car il peut y avoir des pauses dans le traitement demander par le praticien ou également par le patient.</t>
+  </si>
+  <si>
+    <t>Date d’administration de la molécule administrée dans le centre</t>
+  </si>
+  <si>
+    <t>toutes les dates d’administration de la molécule administrée dans le centre et dont la source d’information vient du logiciel Chimio de la PUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de première administration pour les molécules administrées en dehors du centre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de première administration pour les molécules administrée en dehors du centre c’est-à-dire pour les molécules dont les dates d’administration ne sont pas structurées dans le logiciels CHIMIO du centre. Cela concerne par exemple les molécules administrées par voie orale mais aussi les molécules pris en charge en ambulatoire ou dans un autre centre. </t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de fin de traitement pour les molécules administrées en dehors du centre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de fin de traitement pour les molécules administrée en dehors du centre c’est-à-dire pour les molécules dont les dates d’administration ne sont pas structurées dans le logiciels CHIMIO du centre. Cela concerne par exemple les molécules administrées par voie orale mais aussi les molécules pris en charge en ambulatoire ou dans un autre </t>
+  </si>
+  <si>
+    <t>Protocole thérapeutique</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le protocole de traitement est le schéma d’administration d’une association de molécules pour une pathologie, un stade de la maladie donnée et une situation donnée (Adj, néoadj, 1er ligne, 2ème ligne etc…) ex : de protocole 3FEC- 3T dans le traitement adjuvant du cancer du sein, FOLFOX en première ligne du cancer colorectal métastatique  </t>
+  </si>
+  <si>
+    <t>Code HemOnc</t>
+  </si>
+  <si>
+    <t>Essai clinique dans l’hôpital</t>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le traitement dans l’hôpital s'inscrit-il dans le contexte d'un essai clinique ? </t>
+  </si>
+  <si>
+    <t>OUI/NON</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>Accès précoce dans l’hôpital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le traitement dans l’hôpital s'inscrit-il dans le contexte d'accès précoce ? </t>
+  </si>
+  <si>
+    <t>Cartographie des maladies hors cancers (Eg. Diabète, HTA, etc.) et Evènements indésirables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Antécédents  familiaux de cancer </t>
+  </si>
+  <si>
+    <t>6. Antécédents personnels de cancer</t>
+  </si>
+  <si>
+    <t>7.
+Antécédents médicaux personnels</t>
+  </si>
+  <si>
+    <t>13. Comorbidités ou Evènements indésirables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">évènements indésirables ou pathologies associées </t>
+  </si>
+  <si>
+    <r>
+      <t>Evènements indésirables répérés dans les dossiers médicaux selon la CTCAE ou Catégorisation de la maladie selon la c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>lassification statistique internationale des maladies et des problèmes de santé (ICD, 10ème édition)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>code de la CTCAE (sur une liste restreinte) pour les EI Code ICD-10 pour les comorbidités</t>
+  </si>
+  <si>
+    <t>Date de l'évènement ou de la comorbidité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toutes les Dates « réelle » qui mentionne la pathologie associée si présente dans le CR si non toutes les dates des compte rendus qui évoquent pour l'EI ou la pathologie associée dans le dossier médical du patient. </t>
+  </si>
+  <si>
+    <t>Nom du biomarqueur moléculaire ou tissulaire selon les définitions vues ci-dessus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3 </t>
+  </si>
+  <si>
+    <t>Nom du marqueur tumoral</t>
+  </si>
+  <si>
+    <t>Nom du marqueur tumoral selon la définition vu plus haut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non décidé - Snomed CT ou LIONC </t>
+  </si>
+  <si>
+    <t>Mesure du marqueur tumoral</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>Unité de mesure du marqueur tumoral</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>Valeur d'expression du marqueur tumoral.</t>
+  </si>
+  <si>
+    <t>L’unité d’expression du marqueur tumoral</t>
+  </si>
+  <si>
+    <t>Valeur numérique du marqueur tumoral. Par exemple si le PSA est à 12 on prend la valeur « 12 »</t>
+  </si>
+  <si>
+    <t>Lieu de prélèvement</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>Lieu de prélèvement correspond au liquide dans lequel on a fait le prélèvement du marqueur tumoral</t>
+  </si>
+  <si>
+    <t>Sérum, LCR, urine, plèvre</t>
+  </si>
+  <si>
+    <t>chaine de caractères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date du résultat </t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de la mesure pour les marqueurs tumoraux et les biomarqueurs moléculaires et tissulaires  </t>
+  </si>
+  <si>
+    <t>Lieu de conservation de l’échantillon</t>
+  </si>
+  <si>
+    <t>obligatroie</t>
+  </si>
+  <si>
+    <t>"-Laboratoire d’anatomopathologie du centre
+- CRB du centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de l'échantillon dans le laboratoire d’anapath ou dans le centre (lien avec le set de données échantillon biologique). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut distinguer les échantillons qui sont conservés dans le centre au niveau du laboratoire d’anatomopathologie de ceux conservés au niveau du Centre de Ressources biologiques (CRB).Les deux services n’utilisent pas les mêmes logiciels et ce sont deux sources d’informations différentes. En général, les échantillons de type bloc histologique et lame sont conservées dans le laboratoire d’anatomopathologie et les échantillons congelés et tous les autres dans les CRB.  </t>
+  </si>
+  <si>
+    <t>Date de prélèvement de l’échantillon parent</t>
+  </si>
+  <si>
+    <t>Date de prélèvement de l'échantillon parent</t>
+  </si>
+  <si>
+    <t>Date de l’échantillon préparé à partir de l’échantillon parent</t>
+  </si>
+  <si>
+    <t>La date de l’échantillon préparé à partir de l’échantillon parent (ex : extraction d’ADN, extraction ARN)</t>
+  </si>
+  <si>
+    <t>Echantillon provenant d’un tissu sain ou tumoral (CRB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique si l'échantillon provient d’un tissu sain ou tumoral. Cet item ne concerne que les échantillons conservés dans les CRB. La question ne se pose pas pour les échantillons dans le laboratoire d’anapath car l’analyse anatomopathologique ne concerne que les tissus tumoraux au contraire des analyses biomoléculaires qui peuvent comparer un tissu sain avec un tissu tumoral. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UMLS:C0005767 pour du sang
+UMLS:C0085983 pour une tumeur UMLS:C1548793 pour un tissu congelé
+UMLS:C1519524 pour un tissu FFPE
+UMLS:C0042036 pour de l'urine
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UMLS:C0032105 pour du plasma stocké</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+UMLS:C0035668 pour du RNA
+UMLS:C0012854 pour de l'ADN
+UMLS:C1321301 pour une cellule du sang périphérique
+UMLS:C0439673 pour non connu
+UMLS: XXXX pour des selles 
+UMSL : XXXX pour une poudre</t>
+    </r>
+  </si>
+  <si>
+    <t>Nature de l'échantillon pour un laboratoire d’anapath</t>
+  </si>
+  <si>
+    <t>Nature de l'échantillon dans le CRB</t>
+  </si>
+  <si>
+    <t>UMLS:XXXXXX bloc
+UMLS :XXXXXX lame blanche
+UMLS :XXXXXX lame colorée</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>Pas la peine d’être aussi précis pour la localisation des métas que dans la localisation des tumeurs primitives. 
+Donc on peut se limiter au premier niveau de topographie de la classification CIM-O-3 ex :
+C22	3	LIVER AND INTRAHEPATIC BILE
+C25	3	PANCREAS
+C34	3	BRONCHUS AND LUNG
+C50	3	BREAST
+C71	3	BRAIN</t>
+  </si>
+  <si>
+    <t>Information indiquant la nature de l'échantillon dans le CRB.</t>
+  </si>
+  <si>
+    <t>Information indiquant la nature de l'échantillon dans le laboratoire d'anapath.</t>
+  </si>
+  <si>
+    <t>Numéro unique permettant d'identifier l'étude</t>
+  </si>
+  <si>
+    <t>Chaine de Caractères Dicom Tag (0020,000D)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,8 +1876,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1490,12 +1905,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1784,6 +2193,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1792,7 +2364,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1815,9 +2387,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,208 +2450,367 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2366,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2377,58 +3105,59 @@
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="1.54296875" customWidth="1"/>
     <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="15" max="15" width="21.81640625" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="I4" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-    </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="I4" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2441,13 +3170,13 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>328</v>
+      <c r="E5" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2456,27 +3185,27 @@
       <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>328</v>
+      <c r="M5" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2485,404 +3214,368 @@
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A7" s="92"/>
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="92"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="48" t="s">
+      <c r="J7" s="93"/>
+      <c r="K7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="94.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A8" s="92"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>338</v>
+      <c r="G8" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="I8" s="92"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="48" t="s">
+      <c r="J8" s="93"/>
+      <c r="K8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="N8" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="92"/>
-      <c r="B9" s="86"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="92"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="48" t="s">
+      <c r="J9" s="93"/>
+      <c r="K9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="90" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="93" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="N10" s="72" t="s">
+      <c r="N10" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="O10" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="O10" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="86"/>
+    </row>
+    <row r="11" spans="1:15" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="100"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53" t="s">
+      <c r="I11" s="100"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="N11" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="O11" s="73" t="s">
+      <c r="M11" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="O11" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="105" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="86"/>
+    </row>
+    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.35">
+      <c r="A12" s="100"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="N12" s="72" t="s">
+      <c r="M12" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="O12" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="O12" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="126" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="86"/>
+    </row>
+    <row r="13" spans="1:15" ht="126" x14ac:dyDescent="0.35">
+      <c r="A13" s="100"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53" t="s">
+      <c r="I13" s="100"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="55"/>
-      <c r="M13" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="N13" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="O13" s="73" t="s">
+      <c r="L13" s="54"/>
+      <c r="M13" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="O13" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="93" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="93" t="s">
+      <c r="J14" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="N14" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="O14" s="72" t="s">
+      <c r="M14" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="N14" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="O14" s="70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="92"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="66" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="68"/>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A16" s="90" t="s">
+      <c r="J15" s="106"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="128"/>
+    </row>
+    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+      <c r="A16" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="93" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2891,19 +3584,19 @@
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="106" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2912,182 +3605,156 @@
       <c r="L16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="62" t="s">
+      <c r="M16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="O16" s="18" t="s">
+      <c r="N16" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A17" s="90"/>
-      <c r="B17" s="86"/>
+    </row>
+    <row r="17" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="100"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="51" t="s">
+      <c r="I17" s="125"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="N17" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="O17" s="73" t="s">
+      <c r="M17" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="N17" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="90"/>
-      <c r="B18" s="86"/>
+      <c r="O17" s="71" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="100"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="51" t="s">
+      <c r="I18" s="125"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="O18" s="72" t="s">
+      <c r="M18" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="O18" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="90"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="65" t="s">
+    </row>
+    <row r="19" spans="1:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="100"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="93"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="N19" s="74" t="s">
-        <v>353</v>
-      </c>
-      <c r="O19" s="18" t="s">
+      <c r="M19" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="N19" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
+    </row>
+    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="19"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="54"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="18"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="N20" s="26" t="s">
+      <c r="M20" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="N20" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="97" t="s">
-        <v>383</v>
-      </c>
+      <c r="Q20" s="82"/>
     </row>
     <row r="21" spans="1:17" ht="147" x14ac:dyDescent="0.35">
       <c r="A21" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="93" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3096,119 +3763,70 @@
       <c r="D21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="I21" s="130"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+    </row>
+    <row r="22" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="92"/>
-      <c r="B22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="N22" s="74" t="s">
-        <v>359</v>
-      </c>
-      <c r="O22" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="84" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="48"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="18"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="L23" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="N23" s="74" t="s">
-        <v>358</v>
-      </c>
-      <c r="O23" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="84" x14ac:dyDescent="0.35">
-      <c r="A24" s="90" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="17"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+    </row>
+    <row r="24" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="93" t="s">
         <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3217,548 +3835,489 @@
       <c r="D24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="86" t="s">
+      <c r="I24" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="J24" s="93" t="s">
         <v>82</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="O24" s="18" t="s">
+      <c r="M24" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="O24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
-      <c r="B25" s="86"/>
+    </row>
+    <row r="25" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="100"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="19"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="71" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="N25" s="74" t="s">
-        <v>362</v>
-      </c>
-      <c r="O25" s="73" t="s">
+      <c r="M25" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="O25" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="26" spans="1:17" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="90"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="86"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="157.5" x14ac:dyDescent="0.35">
+      <c r="O26" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="147" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="93" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>86</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="86" t="s">
+        <v>434</v>
+      </c>
+      <c r="J27" s="93" t="s">
         <v>93</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="N27" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="O27" s="18" t="s">
+      <c r="N27" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="O27" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="157.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A28" s="92"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="18"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="17"/>
       <c r="I28" s="92"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="71" t="s">
+      <c r="J28" s="93"/>
+      <c r="K28" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="N28" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="O28" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>383</v>
+      <c r="M28" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="N28" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="O28" s="74" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A29" s="92"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="92"/>
-      <c r="J29" s="86"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="1" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="N29" s="26" t="s">
+      <c r="N29" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="84" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
+    </row>
+    <row r="30" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="A30" s="48"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="L30" s="71" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="17"/>
+      <c r="I30" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="N30" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="O30" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
+      <c r="M30" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="N30" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="O30" s="71" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="93" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="90" t="s">
+      <c r="I31" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="86" t="s">
+      <c r="J31" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="73"/>
-      <c r="P31">
-        <v>1</v>
-      </c>
+      <c r="K31" s="50"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="71"/>
     </row>
     <row r="32" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A32" s="90"/>
-      <c r="B32" s="86"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="90"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="73"/>
-      <c r="P32">
-        <v>1</v>
-      </c>
+      <c r="I32" s="100"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="71"/>
     </row>
     <row r="33" spans="1:17" ht="147" x14ac:dyDescent="0.35">
-      <c r="A33" s="90"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="86"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="93"/>
       <c r="K33" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N33" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="O33" s="18" t="s">
+      <c r="N33" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="O33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="34" spans="1:17" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="90"/>
-      <c r="B34" s="86"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="18"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="51" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="17"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="71" t="s">
+      <c r="L34" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="N34" s="74" t="s">
-        <v>375</v>
-      </c>
-      <c r="O34" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="98" t="s">
-        <v>383</v>
-      </c>
+      <c r="M34" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="N34" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="O34" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q34" s="82"/>
     </row>
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="90"/>
-      <c r="B35" s="86"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="86"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="93"/>
       <c r="K35" s="1" t="s">
         <v>110</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="N35" s="27" t="s">
+      <c r="N35" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A36" s="90"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="90"/>
-      <c r="J36" s="86"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="93"/>
       <c r="K36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N36" s="27" t="s">
+      <c r="N36" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="90"/>
-      <c r="B37" s="86"/>
+    </row>
+    <row r="37" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+      <c r="A37" s="100"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="90"/>
-      <c r="J37" s="86"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="93"/>
       <c r="K37" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="N37" s="27" t="s">
+      <c r="N37" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="O37" s="21" t="s">
+      <c r="O37" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A38" s="90"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="21"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="20"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="79" t="s">
+      <c r="L38" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="M38" s="69" t="s">
+      <c r="M38" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="O38" s="80" t="s">
-        <v>378</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
+      <c r="O38" s="78" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A39" s="90"/>
-      <c r="B39" s="86" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="93" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3767,17 +4326,17 @@
       <c r="D39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="90"/>
-      <c r="J39" s="94" t="s">
+      <c r="I39" s="100"/>
+      <c r="J39" s="101" t="s">
         <v>125</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -3786,184 +4345,163 @@
       <c r="L39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="N39" s="26" t="s">
+      <c r="M39" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="N39" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="O39" s="81" t="s">
+      <c r="O39" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="90"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="95"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="102"/>
       <c r="K40" s="1" t="s">
         <v>130</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="N40" s="26" t="s">
+      <c r="M40" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="N40" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="90"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="90"/>
-      <c r="J41" s="95"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="102"/>
       <c r="K41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M41" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="N41" s="26" t="s">
+      <c r="M41" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="N41" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="O41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="90"/>
-      <c r="B42" s="86"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="90"/>
-      <c r="J42" s="95"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="102"/>
       <c r="K42" s="1" t="s">
         <v>136</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M42" s="15" t="s">
+      <c r="M42" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="N42" s="26" t="s">
+      <c r="N42" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="O42" s="21" t="s">
+      <c r="O42" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A43" s="90"/>
-      <c r="B43" s="86"/>
+    </row>
+    <row r="43" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="100"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="95"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="102"/>
       <c r="K43" s="1" t="s">
         <v>140</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M43" s="15" t="s">
+      <c r="M43" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="O43" s="21" t="s">
+      <c r="O43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="44" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="90"/>
-      <c r="B44" s="86" t="s">
+      <c r="A44" s="100"/>
+      <c r="B44" s="93" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3972,81 +4510,72 @@
       <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="90"/>
-      <c r="J44" s="95"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="102"/>
       <c r="K44" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N44" s="26" t="s">
+      <c r="N44" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="O44" s="21" t="s">
+      <c r="O44" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="45" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="90"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="90"/>
-      <c r="J45" s="96"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="103"/>
       <c r="K45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L45" s="71" t="s">
+      <c r="L45" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="M45" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="N45" s="26" t="s">
+      <c r="N45" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="O45" s="21" t="s">
+      <c r="O45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="90"/>
-      <c r="B46" s="86" t="s">
+      <c r="A46" s="100"/>
+      <c r="B46" s="93" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4055,17 +4584,17 @@
       <c r="D46" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="90"/>
-      <c r="J46" s="86" t="s">
+      <c r="I46" s="100"/>
+      <c r="J46" s="93" t="s">
         <v>152</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -4074,63 +4603,57 @@
       <c r="L46" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="N46" s="26" t="s">
+      <c r="N46" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="90"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="90"/>
-      <c r="J47" s="86"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="93"/>
       <c r="K47" s="1" t="s">
         <v>157</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M47" s="15" t="s">
+      <c r="M47" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N47" s="26" t="s">
+      <c r="N47" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="O47" s="21" t="s">
+      <c r="O47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="105" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:17" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A48" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4139,19 +4662,19 @@
       <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I48" s="92" t="s">
+      <c r="I48" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="J48" s="86" t="s">
+      <c r="J48" s="110" t="s">
         <v>160</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -4160,139 +4683,127 @@
       <c r="L48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M48" s="15" t="s">
+      <c r="M48" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="N48" s="26" t="s">
+      <c r="N48" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="O48" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+      <c r="O48" s="69" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="126" x14ac:dyDescent="0.35">
       <c r="A49" s="92"/>
-      <c r="B49" s="86"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="92"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="1" t="s">
+      <c r="I49" s="105"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="L49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N49" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="O49" s="18" t="s">
+      <c r="L49" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="M49" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="N49" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:15" ht="178.5" x14ac:dyDescent="0.35">
       <c r="A50" s="92"/>
-      <c r="B50" s="86"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="92"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="1" t="s">
+      <c r="I50" s="105"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="69" t="s">
         <v>168</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N50" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="O50" s="18" t="s">
+      <c r="M50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="84" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:15" ht="84" x14ac:dyDescent="0.35">
       <c r="A51" s="92"/>
-      <c r="B51" s="86"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="92"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="1" t="s">
+      <c r="I51" s="105"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="L51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="O51" s="18" t="s">
+      <c r="L51" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="M51" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="N51" s="83" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="126" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:15" ht="126" x14ac:dyDescent="0.35">
       <c r="A52" s="92"/>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="93" t="s">
         <v>173</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4301,121 +4812,110 @@
       <c r="D52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I52" s="92"/>
-      <c r="J52" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="I52" s="105"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="N52" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="O52" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+      <c r="L52" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="N52" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="O52" s="68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="84" x14ac:dyDescent="0.35">
       <c r="A53" s="92"/>
-      <c r="B53" s="86"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="92"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="1" t="s">
+      <c r="I53" s="105"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="L53" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="N53" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="L53" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="M53" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="N53" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="O53" s="68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="168" x14ac:dyDescent="0.35">
       <c r="A54" s="92"/>
-      <c r="B54" s="86"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="92"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="1" t="s">
+      <c r="I54" s="105"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="N54" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="90" t="s">
+      <c r="L54" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="M54" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="N54" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="O54" s="68" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="93" t="s">
         <v>185</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4424,125 +4924,254 @@
       <c r="D55" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="90"/>
-      <c r="B56" s="86"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="100"/>
+      <c r="B56" s="93"/>
       <c r="C56" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="42" x14ac:dyDescent="0.35">
-      <c r="A57" s="90"/>
-      <c r="B57" s="86"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="N56" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+      <c r="A57" s="100"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="90"/>
-      <c r="B58" s="86"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="N57" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="84" x14ac:dyDescent="0.35">
+      <c r="A58" s="100"/>
+      <c r="B58" s="93"/>
       <c r="C58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="42" x14ac:dyDescent="0.35">
-      <c r="A59" s="90"/>
-      <c r="B59" s="86"/>
+      <c r="I58" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="J58" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="L58" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="M58" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="N58" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="O58" s="71" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="84" x14ac:dyDescent="0.35">
+      <c r="A59" s="100"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="14" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="90"/>
-      <c r="B60" s="86"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="L59" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="N59" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="O59" s="71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+      <c r="A60" s="100"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="42" x14ac:dyDescent="0.35">
-      <c r="A61" s="90"/>
-      <c r="B61" s="86"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="L60" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="M60" s="88" t="s">
+        <v>396</v>
+      </c>
+      <c r="N60" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="O60" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+      <c r="A61" s="100"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="I61" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J61" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="N61" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A62" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="86" t="s">
+      <c r="B62" s="93" t="s">
         <v>210</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4551,59 +5180,114 @@
       <c r="D62" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="N62" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A63" s="92"/>
-      <c r="B63" s="86"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="I63" s="92"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L63" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="M63" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="N63" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="O63" s="89" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="199.5" x14ac:dyDescent="0.35">
       <c r="A64" s="92"/>
-      <c r="B64" s="86"/>
+      <c r="B64" s="93"/>
       <c r="C64" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="90" t="s">
+      <c r="I64" s="124" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="J64" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="L64" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="N64" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="O64" s="90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="93" t="s">
         <v>220</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4612,135 +5296,254 @@
       <c r="D65" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="84" x14ac:dyDescent="0.35">
-      <c r="A66" s="90"/>
-      <c r="B66" s="86"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="N65" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O65" s="72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="84" x14ac:dyDescent="0.35">
+      <c r="A66" s="100"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="22" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="90"/>
-      <c r="B67" s="86"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="O66" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="100"/>
+      <c r="B67" s="93"/>
       <c r="C67" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="90"/>
-      <c r="B68" s="86"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="L67" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="N67" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="O67" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="100"/>
+      <c r="B68" s="93"/>
       <c r="C68" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="90"/>
-      <c r="B69" s="86"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="L68" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="N68" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="O68" s="91" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="100"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="90"/>
-      <c r="B70" s="86"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="L69" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="N69" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="O69" s="117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="157.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="100"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="63" x14ac:dyDescent="0.35">
-      <c r="A71" s="90"/>
-      <c r="B71" s="86"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="L70" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="M70" s="72" t="s">
+        <v>413</v>
+      </c>
+      <c r="N70" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="O70" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="147" x14ac:dyDescent="0.35">
+      <c r="A71" s="100"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="I71" s="125"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="118" t="s">
+        <v>415</v>
+      </c>
+      <c r="L71" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="N71" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="O71" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="147" x14ac:dyDescent="0.35">
       <c r="A72" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="93" t="s">
         <v>245</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4749,46 +5552,72 @@
       <c r="D72" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H72" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="I72" s="125"/>
+      <c r="K72" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L72" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="N72" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="O72" s="71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A73" s="92"/>
-      <c r="B73" s="86"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G73" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H73" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="90" t="s">
+      <c r="I73" s="125"/>
+      <c r="K73" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L73" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="N73" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="O73" s="71" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="93" t="s">
         <v>255</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4797,68 +5626,113 @@
       <c r="D74" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="H74" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42" x14ac:dyDescent="0.35">
-      <c r="A75" s="90"/>
-      <c r="B75" s="86"/>
+      <c r="I74" s="126"/>
+      <c r="K74" s="121" t="s">
+        <v>429</v>
+      </c>
+      <c r="L74" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="N74" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="O74" s="71" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="105" x14ac:dyDescent="0.35">
+      <c r="A75" s="100"/>
+      <c r="B75" s="93"/>
       <c r="C75" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H75" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="147" x14ac:dyDescent="0.35">
-      <c r="A76" s="90"/>
-      <c r="B76" s="86"/>
+      <c r="I75" s="122" t="s">
+        <v>436</v>
+      </c>
+      <c r="J75" s="101" t="s">
+        <v>432</v>
+      </c>
+      <c r="K75" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="L75" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="M75" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="N75" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="O75" s="71" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="147" x14ac:dyDescent="0.35">
+      <c r="A76" s="100"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="H76" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="I76" s="123"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="L76" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="N76" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="O76" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="93" t="s">
         <v>268</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4867,59 +5741,114 @@
       <c r="D77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="20" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+      <c r="I77" s="139" t="s">
+        <v>267</v>
+      </c>
+      <c r="J77" s="141" t="s">
+        <v>268</v>
+      </c>
+      <c r="K77" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="L77" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="N77" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="O77" s="78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A78" s="92"/>
-      <c r="B78" s="86"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="G78" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+      <c r="I78" s="140"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="L78" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M78" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="N78" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="O78" s="78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A79" s="92"/>
-      <c r="B79" s="86"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="84" x14ac:dyDescent="0.35">
-      <c r="A80" s="90" t="s">
+      <c r="I79" s="140"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="L79" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="133" t="s">
+        <v>444</v>
+      </c>
+      <c r="N79" s="136" t="s">
+        <v>445</v>
+      </c>
+      <c r="O79" s="134" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="84" x14ac:dyDescent="0.35">
+      <c r="A80" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="93" t="s">
         <v>280</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4928,116 +5857,222 @@
       <c r="D80" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.35">
-      <c r="A81" s="90"/>
-      <c r="B81" s="86"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="L80" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="N80" s="136" t="s">
+        <v>451</v>
+      </c>
+      <c r="O80" s="136" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="105" x14ac:dyDescent="0.35">
+      <c r="A81" s="100"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="1" t="s">
         <v>284</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A82" s="90"/>
-      <c r="B82" s="86"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="137" t="s">
+        <v>450</v>
+      </c>
+      <c r="L81" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="N81" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="O81" s="68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="100"/>
+      <c r="B82" s="93"/>
       <c r="C82" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F82" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="90"/>
-      <c r="B83" s="86"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="137" t="s">
+        <v>455</v>
+      </c>
+      <c r="L82" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="M82" s="67" t="s">
+        <v>454</v>
+      </c>
+      <c r="N82" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="O82" s="68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="A83" s="100"/>
+      <c r="B83" s="93"/>
       <c r="C83" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="23" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="210" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="90"/>
-      <c r="B84" s="86"/>
+      <c r="I83" s="144"/>
+      <c r="J83" s="143"/>
+      <c r="K83" s="137" t="s">
+        <v>460</v>
+      </c>
+      <c r="L83" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="M83" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="N83" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O83" s="68" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="210" x14ac:dyDescent="0.35">
+      <c r="A84" s="100"/>
+      <c r="B84" s="93"/>
       <c r="C84" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F84" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="G84" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="126" x14ac:dyDescent="0.35">
-      <c r="A85" s="90"/>
-      <c r="B85" s="86"/>
+      <c r="G84" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="I84" s="124" t="s">
+        <v>279</v>
+      </c>
+      <c r="J84" s="141" t="s">
+        <v>280</v>
+      </c>
+      <c r="K84" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="L84" s="138" t="s">
+        <v>463</v>
+      </c>
+      <c r="M84" s="138" t="s">
+        <v>462</v>
+      </c>
+      <c r="N84" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="O84" s="145" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="126" x14ac:dyDescent="0.35">
+      <c r="A85" s="100"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="1" t="s">
         <v>298</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="I85" s="125"/>
+      <c r="J85" s="142"/>
+      <c r="K85" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="L85" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="N85" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="O85" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A86" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="86" t="s">
+      <c r="B86" s="93" t="s">
         <v>302</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5046,74 +6081,142 @@
       <c r="D86" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="F86" s="27"/>
+      <c r="G86" s="17"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="142"/>
+      <c r="K86" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="O86" s="146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A87" s="92"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="10" t="s">
+      <c r="B87" s="93"/>
+      <c r="C87" s="9" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G87" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="I87" s="125"/>
+      <c r="J87" s="142"/>
+      <c r="K87" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="L87" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M87" s="147" t="s">
+        <v>467</v>
+      </c>
+      <c r="N87" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="O87" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="63" x14ac:dyDescent="0.35">
       <c r="A88" s="92"/>
-      <c r="B88" s="86"/>
+      <c r="B88" s="93"/>
       <c r="C88" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F88" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="I88" s="125"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="L88" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M88" s="147" t="s">
+        <v>469</v>
+      </c>
+      <c r="N88" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="O88" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="178.5" x14ac:dyDescent="0.35">
       <c r="A89" s="92"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="10" t="s">
+      <c r="B89" s="93"/>
+      <c r="C89" s="9" t="s">
         <v>310</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="F89" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="G89" s="18" t="s">
+      <c r="G89" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A90" s="90" t="s">
+      <c r="I89" s="125"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="L89" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="147" t="s">
+        <v>471</v>
+      </c>
+      <c r="N89" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="O89" s="148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="210" x14ac:dyDescent="0.35">
+      <c r="A90" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="93" t="s">
         <v>313</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5122,78 +6225,291 @@
       <c r="D90" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="90"/>
-      <c r="B91" s="86"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="17"/>
+      <c r="I90" s="125"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="L90" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="N90" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="O90" s="90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="100"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="F91" s="26" t="s">
+      <c r="F91" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="91"/>
-      <c r="B92" s="87"/>
+      <c r="I91" s="125"/>
+      <c r="J91" s="142"/>
+      <c r="K91" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="L91" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="N91" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="O91" s="89" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q91" s="116"/>
+    </row>
+    <row r="92" spans="1:17" ht="168.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="107"/>
+      <c r="B92" s="115"/>
       <c r="C92" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="24" t="s">
         <v>182</v>
       </c>
+      <c r="I92" s="126"/>
+      <c r="J92" s="143"/>
+      <c r="K92" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="N92" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="O92" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q92" s="116"/>
+    </row>
+    <row r="93" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="I93" s="135" t="s">
+        <v>301</v>
+      </c>
+      <c r="J93" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M93" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="N93" s="27"/>
+      <c r="O93" s="17"/>
+      <c r="Q93" s="116"/>
+    </row>
+    <row r="94" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="I94" s="149"/>
+      <c r="J94" s="98"/>
+      <c r="K94" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M94" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="N94" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="O94" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q94" s="116"/>
+    </row>
+    <row r="95" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I95" s="149"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M95" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N95" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O95" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95" s="116"/>
+    </row>
+    <row r="96" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I96" s="150"/>
+      <c r="J96" s="99"/>
+      <c r="K96" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M96" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N96" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="O96" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q96" s="116"/>
+    </row>
+    <row r="97" spans="9:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="I97" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="J97" s="97" t="s">
+        <v>313</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="N97" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="O97" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q97" s="116"/>
+    </row>
+    <row r="98" spans="9:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="I98" s="95"/>
+      <c r="J98" s="98"/>
+      <c r="K98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M98" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="N98" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O98" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q98" s="116"/>
+    </row>
+    <row r="99" spans="9:17" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I99" s="151"/>
+      <c r="J99" s="152"/>
+      <c r="K99" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="O99" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q99" s="116"/>
+    </row>
+    <row r="100" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="Q100" s="116"/>
+    </row>
+    <row r="101" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="Q101" s="116"/>
+    </row>
+    <row r="102" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="Q102" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="I48:I54"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I31:I47"/>
-    <mergeCell ref="J31:J37"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J39:J45"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I24:I26"/>
+  <mergeCells count="80">
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J77:J83"/>
+    <mergeCell ref="I77:I83"/>
+    <mergeCell ref="I84:I92"/>
+    <mergeCell ref="J84:J92"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="A6:A9"/>
@@ -5210,29 +6526,37 @@
     <mergeCell ref="A55:A61"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="I48:I57"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="I64:I74"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I31:I47"/>
+    <mergeCell ref="J31:J37"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J39:J45"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="J64:J70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G92" r:id="rId1" display="https://www.ameli.fr/accueil-de-la-ccam/index.php" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5253,9 +6577,9 @@
     <hyperlink ref="O36" r:id="rId16" display="http://codes.iarc.fr/codegroup/2" xr:uid="{AC432AB4-26F8-47DE-BA6B-34C5ACF82B69}"/>
     <hyperlink ref="O35" r:id="rId17" display="http://codes.iarc.fr/topography" xr:uid="{829E5F08-BC2E-434F-8F64-904D0A2BF3B8}"/>
     <hyperlink ref="O24" r:id="rId18" display="http://codes.iarc.fr/topography" xr:uid="{C8CA3D14-5E7C-4F8C-8822-1E70B3310397}"/>
-    <hyperlink ref="O21" r:id="rId19" display="http://apps.who.int/classifications/icd10/browse/2016/en" xr:uid="{F5A688A8-78B8-4986-86A7-372B3C817A0B}"/>
-    <hyperlink ref="O9" r:id="rId20" display="http://hl7.org/fhir/v3/AdministrativeGender/cs.html" xr:uid="{0B7E7AE3-AE5A-4FC5-BF8C-2921C81BF138}"/>
-    <hyperlink ref="O7" r:id="rId21" display="http://finess.sante.gouv.fr/fininter/jsp/index.jsp" xr:uid="{50415C2E-26F1-4688-8587-ACEACD91FFB8}"/>
+    <hyperlink ref="O9" r:id="rId19" display="http://hl7.org/fhir/v3/AdministrativeGender/cs.html" xr:uid="{0B7E7AE3-AE5A-4FC5-BF8C-2921C81BF138}"/>
+    <hyperlink ref="O7" r:id="rId20" display="http://finess.sante.gouv.fr/fininter/jsp/index.jsp" xr:uid="{50415C2E-26F1-4688-8587-ACEACD91FFB8}"/>
+    <hyperlink ref="O94" r:id="rId21" display="http://apps.who.int/classifications/icd10/browse/2016/en" xr:uid="{9851BE1D-6A97-44BD-BD74-DB4B0DA850F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5275,87 +6599,87 @@
       <c r="A1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.35">
       <c r="A2" s="92"/>
-      <c r="B2" s="86"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A3" s="92"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="92"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="93" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5364,114 +6688,114 @@
       <c r="D5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="36" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="90"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="93" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5480,95 +6804,95 @@
       <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
-      <c r="B16" s="86" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="93" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5577,38 +6901,38 @@
       <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="90"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="90"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="93" t="s">
         <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5617,150 +6941,150 @@
       <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="90"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="84" x14ac:dyDescent="0.35">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.35">
-      <c r="A21" s="90"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="1" t="s">
         <v>284</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="30" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A23" s="90"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="45" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="378" x14ac:dyDescent="0.35">
-      <c r="A24" s="90"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="1" t="s">
         <v>298</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5788,15 +7112,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="118c9c2b-c1ab-4af2-a9d6-b8398d585353" xsi:nil="true"/>
@@ -5805,6 +7120,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6037,20 +7361,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF06423C-EAF5-46CE-A314-CC36D7961C24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{586BA9AD-6C0B-4758-862B-9DC464657C23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="118c9c2b-c1ab-4af2-a9d6-b8398d585353"/>
     <ds:schemaRef ds:uri="fbe4bbf6-5293-447a-a5f2-34aaa83ce23f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF06423C-EAF5-46CE-A314-CC36D7961C24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OSIRIS RWD v0.9.xlsx
+++ b/OSIRIS RWD v0.9.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parissaclaycancercluster.sharepoint.com/sites/02-CHANTIER/Documents partages/WP 4 - Data/04 - OSIRIS RWD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="953" documentId="8_{1415FA60-82E7-4C99-BF6B-1E12605D68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4402D73-7A29-4C9F-8460-EB82CAC4E18A}"/>
+  <xr:revisionPtr revIDLastSave="1140" documentId="8_{1415FA60-82E7-4C99-BF6B-1E12605D68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C7F1AF-CD0D-4037-AF65-3BA76A2D3FD7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$5:$O$99</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="486">
   <si>
     <t xml:space="preserve">OSIRIS RWD - Version 0.8 –  2022 </t>
   </si>
@@ -1752,12 +1755,15 @@
   <si>
     <t>Chaine de Caractères Dicom Tag (0020,000D)</t>
   </si>
+  <si>
+    <t>Morphologie de l'antécédent personnel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1893,49 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2364,7 +2413,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2633,10 +2682,264 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2645,55 +2948,37 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2702,47 +2987,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2752,64 +3026,133 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3094,10 +3437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M97" sqref="M97"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,52 +3454,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="198" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="I4" s="113" t="s">
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="I4" s="193" t="s">
         <v>328</v>
       </c>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="194"/>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3201,11 +3545,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+      <c r="A6" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="195" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3223,10 +3567,10 @@
       <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="195" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="47" t="s">
@@ -3246,8 +3590,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3263,8 +3607,8 @@
       <c r="G7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="195"/>
       <c r="K7" s="47" t="s">
         <v>15</v>
       </c>
@@ -3282,8 +3626,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3299,8 +3643,8 @@
       <c r="G8" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="195"/>
       <c r="K8" s="47" t="s">
         <v>19</v>
       </c>
@@ -3318,8 +3662,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
@@ -3335,8 +3679,8 @@
       <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="195"/>
       <c r="K9" s="47" t="s">
         <v>23</v>
       </c>
@@ -3353,11 +3697,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:15" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="195" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3375,7 +3719,7 @@
       <c r="G10" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="200" t="s">
         <v>322</v>
       </c>
       <c r="J10" s="51"/>
@@ -3395,9 +3739,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="93"/>
+    <row r="11" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="200"/>
+      <c r="B11" s="195"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3413,7 +3757,7 @@
       <c r="G11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="100"/>
+      <c r="I11" s="200"/>
       <c r="J11" s="51"/>
       <c r="K11" s="52" t="s">
         <v>33</v>
@@ -3431,9 +3775,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.35">
-      <c r="A12" s="100"/>
-      <c r="B12" s="93"/>
+    <row r="12" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="200"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -3449,7 +3793,7 @@
       <c r="G12" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="100"/>
+      <c r="I12" s="200"/>
       <c r="J12" s="51"/>
       <c r="K12" s="52" t="s">
         <v>36</v>
@@ -3467,9 +3811,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="126" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
-      <c r="B13" s="93"/>
+    <row r="13" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="200"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3485,7 +3829,7 @@
       <c r="G13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="200"/>
       <c r="J13" s="51"/>
       <c r="K13" s="52" t="s">
         <v>39</v>
@@ -3501,11 +3845,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:15" ht="63" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="195" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3523,10 +3867,10 @@
       <c r="G14" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="204" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="50" t="s">
@@ -3545,9 +3889,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
+    <row r="15" spans="1:15" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="199"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="63" t="s">
         <v>49</v>
       </c>
@@ -3563,19 +3907,19 @@
       <c r="G15" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="106"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="204"/>
       <c r="K15" s="50"/>
       <c r="L15" s="67"/>
       <c r="M15" s="68"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="128"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.35">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="195" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3593,10 +3937,10 @@
       <c r="G16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="124" t="s">
+      <c r="I16" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="204" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -3616,8 +3960,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="100"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="200"/>
+      <c r="B17" s="195"/>
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
@@ -3633,8 +3977,8 @@
       <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="106"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="204"/>
       <c r="K17" s="50" t="s">
         <v>60</v>
       </c>
@@ -3652,8 +3996,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="200"/>
+      <c r="B18" s="195"/>
       <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
@@ -3669,8 +4013,8 @@
       <c r="G18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="125"/>
-      <c r="J18" s="106"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="204"/>
       <c r="K18" s="50" t="s">
         <v>63</v>
       </c>
@@ -3688,8 +4032,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="200"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="63" t="s">
         <v>67</v>
       </c>
@@ -3705,8 +4049,8 @@
       <c r="G19" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="125"/>
-      <c r="J19" s="106"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="204"/>
       <c r="K19" s="1" t="s">
         <v>67</v>
       </c>
@@ -3731,7 +4075,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="25"/>
       <c r="G20" s="18"/>
-      <c r="I20" s="126"/>
+      <c r="I20" s="192"/>
       <c r="J20" s="53"/>
       <c r="K20" s="1" t="s">
         <v>335</v>
@@ -3750,11 +4094,11 @@
       </c>
       <c r="Q20" s="82"/>
     </row>
-    <row r="21" spans="1:17" ht="147" x14ac:dyDescent="0.35">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:17" ht="147" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="195" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3772,17 +4116,17 @@
       <c r="G21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="130"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-    </row>
-    <row r="22" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
-      <c r="B22" s="93"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+    </row>
+    <row r="22" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="199"/>
+      <c r="B22" s="195"/>
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
@@ -3798,15 +4142,15 @@
       <c r="G22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I22" s="206"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3814,19 +4158,19 @@
       <c r="E23" s="14"/>
       <c r="F23" s="25"/>
       <c r="G23" s="17"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-    </row>
-    <row r="24" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="100" t="s">
+      <c r="I23" s="207"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+    </row>
+    <row r="24" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="195" t="s">
         <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3844,10 +4188,10 @@
       <c r="G24" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="100" t="s">
+      <c r="I24" s="200" t="s">
         <v>433</v>
       </c>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="195" t="s">
         <v>82</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3866,16 +4210,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="100"/>
-      <c r="B25" s="93"/>
+    <row r="25" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="200"/>
+      <c r="B25" s="195"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="14"/>
       <c r="F25" s="25"/>
       <c r="G25" s="18"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="93"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="195"/>
       <c r="K25" s="50" t="s">
         <v>77</v>
       </c>
@@ -3892,9 +4236,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="100"/>
-      <c r="B26" s="93"/>
+    <row r="26" spans="1:17" ht="94.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="200"/>
+      <c r="B26" s="195"/>
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
@@ -3910,8 +4254,8 @@
       <c r="G26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="93"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="195"/>
       <c r="K26" s="1" t="s">
         <v>353</v>
       </c>
@@ -3928,11 +4272,11 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="147" x14ac:dyDescent="0.35">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:17" ht="147" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="195" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3948,10 +4292,10 @@
       <c r="G27" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="92" t="s">
+      <c r="I27" s="199" t="s">
         <v>434</v>
       </c>
-      <c r="J27" s="93" t="s">
+      <c r="J27" s="195" t="s">
         <v>93</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -3970,16 +4314,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
+    <row r="28" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="199"/>
+      <c r="B28" s="195"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="14"/>
       <c r="F28" s="25"/>
       <c r="G28" s="17"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="195"/>
       <c r="K28" s="50" t="s">
         <v>87</v>
       </c>
@@ -3987,7 +4331,7 @@
         <v>50</v>
       </c>
       <c r="M28" s="67" t="s">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="N28" s="72" t="s">
         <v>359</v>
@@ -3996,9 +4340,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
-      <c r="B29" s="93"/>
+    <row r="29" spans="1:17" ht="94.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="199"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="1" t="s">
         <v>97</v>
       </c>
@@ -4012,8 +4356,8 @@
       <c r="G29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="195"/>
       <c r="K29" s="1" t="s">
         <v>354</v>
       </c>
@@ -4058,11 +4402,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="100" t="s">
+    <row r="31" spans="1:17" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="195" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4080,10 +4424,10 @@
       <c r="G31" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="100" t="s">
+      <c r="I31" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="93" t="s">
+      <c r="J31" s="195" t="s">
         <v>101</v>
       </c>
       <c r="K31" s="50"/>
@@ -4092,9 +4436,9 @@
       <c r="N31" s="72"/>
       <c r="O31" s="71"/>
     </row>
-    <row r="32" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A32" s="100"/>
-      <c r="B32" s="93"/>
+    <row r="32" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="200"/>
+      <c r="B32" s="195"/>
       <c r="C32" s="1" t="s">
         <v>107</v>
       </c>
@@ -4110,17 +4454,17 @@
       <c r="G32" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="100"/>
-      <c r="J32" s="93"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="195"/>
       <c r="K32" s="50"/>
       <c r="L32" s="69"/>
       <c r="M32" s="67"/>
       <c r="N32" s="72"/>
       <c r="O32" s="71"/>
     </row>
-    <row r="33" spans="1:17" ht="147" x14ac:dyDescent="0.35">
-      <c r="A33" s="100"/>
-      <c r="B33" s="93"/>
+    <row r="33" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="200"/>
+      <c r="B33" s="195"/>
       <c r="C33" s="1" t="s">
         <v>110</v>
       </c>
@@ -4136,8 +4480,8 @@
       <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="93"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="195"/>
       <c r="K33" s="1" t="s">
         <v>102</v>
       </c>
@@ -4154,16 +4498,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="100"/>
-      <c r="B34" s="93"/>
+    <row r="34" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="200"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="14"/>
       <c r="F34" s="25"/>
       <c r="G34" s="17"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="93"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="195"/>
       <c r="K34" s="50" t="s">
         <v>107</v>
       </c>
@@ -4182,8 +4526,8 @@
       <c r="Q34" s="82"/>
     </row>
     <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="100"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="200"/>
+      <c r="B35" s="195"/>
       <c r="C35" s="1" t="s">
         <v>113</v>
       </c>
@@ -4199,8 +4543,8 @@
       <c r="G35" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="100"/>
-      <c r="J35" s="93"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="195"/>
       <c r="K35" s="1" t="s">
         <v>110</v>
       </c>
@@ -4218,8 +4562,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A36" s="100"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="200"/>
+      <c r="B36" s="195"/>
       <c r="C36" s="1" t="s">
         <v>117</v>
       </c>
@@ -4235,8 +4579,8 @@
       <c r="G36" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="100"/>
-      <c r="J36" s="93"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="195"/>
       <c r="K36" s="1" t="s">
         <v>113</v>
       </c>
@@ -4253,9 +4597,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="84" x14ac:dyDescent="0.35">
-      <c r="A37" s="100"/>
-      <c r="B37" s="93"/>
+    <row r="37" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="200"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="1" t="s">
         <v>121</v>
       </c>
@@ -4271,8 +4615,8 @@
       <c r="G37" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="100"/>
-      <c r="J37" s="93"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="195"/>
       <c r="K37" s="1" t="s">
         <v>117</v>
       </c>
@@ -4289,15 +4633,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="200"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="7"/>
       <c r="E38" s="13"/>
       <c r="F38" s="26"/>
       <c r="G38" s="20"/>
-      <c r="I38" s="100"/>
+      <c r="I38" s="200"/>
       <c r="J38" s="50"/>
       <c r="K38" s="50" t="s">
         <v>121</v>
@@ -4315,9 +4659,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
-      <c r="B39" s="93" t="s">
+    <row r="39" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="200"/>
+      <c r="B39" s="195" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4335,8 +4679,8 @@
       <c r="G39" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101" t="s">
+      <c r="I39" s="200"/>
+      <c r="J39" s="210" t="s">
         <v>125</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -4355,9 +4699,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="100"/>
-      <c r="B40" s="93"/>
+    <row r="40" spans="1:17" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="200"/>
+      <c r="B40" s="195"/>
       <c r="C40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4373,8 +4717,8 @@
       <c r="G40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="102"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="211"/>
       <c r="K40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4391,9 +4735,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="100"/>
-      <c r="B41" s="93"/>
+    <row r="41" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="200"/>
+      <c r="B41" s="195"/>
       <c r="C41" s="1" t="s">
         <v>133</v>
       </c>
@@ -4409,8 +4753,8 @@
       <c r="G41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="100"/>
-      <c r="J41" s="102"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="211"/>
       <c r="K41" s="1" t="s">
         <v>133</v>
       </c>
@@ -4427,9 +4771,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="100"/>
-      <c r="B42" s="93"/>
+    <row r="42" spans="1:17" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="200"/>
+      <c r="B42" s="195"/>
       <c r="C42" s="1" t="s">
         <v>136</v>
       </c>
@@ -4445,8 +4789,8 @@
       <c r="G42" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="100"/>
-      <c r="J42" s="102"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="211"/>
       <c r="K42" s="1" t="s">
         <v>136</v>
       </c>
@@ -4463,9 +4807,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
-      <c r="B43" s="93"/>
+    <row r="43" spans="1:17" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="200"/>
+      <c r="B43" s="195"/>
       <c r="C43" s="1" t="s">
         <v>140</v>
       </c>
@@ -4481,8 +4825,8 @@
       <c r="G43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="102"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="211"/>
       <c r="K43" s="1" t="s">
         <v>140</v>
       </c>
@@ -4499,9 +4843,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="100"/>
-      <c r="B44" s="93" t="s">
+    <row r="44" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="200"/>
+      <c r="B44" s="195" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4519,8 +4863,8 @@
       <c r="G44" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="102"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="211"/>
       <c r="K44" s="1" t="s">
         <v>145</v>
       </c>
@@ -4537,9 +4881,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="100"/>
-      <c r="B45" s="93"/>
+    <row r="45" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="200"/>
+      <c r="B45" s="195"/>
       <c r="C45" s="1" t="s">
         <v>149</v>
       </c>
@@ -4555,8 +4899,8 @@
       <c r="G45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="100"/>
-      <c r="J45" s="103"/>
+      <c r="I45" s="200"/>
+      <c r="J45" s="215"/>
       <c r="K45" s="1" t="s">
         <v>149</v>
       </c>
@@ -4573,9 +4917,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="100"/>
-      <c r="B46" s="93" t="s">
+    <row r="46" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="200"/>
+      <c r="B46" s="195" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4593,8 +4937,8 @@
       <c r="G46" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="100"/>
-      <c r="J46" s="93" t="s">
+      <c r="I46" s="200"/>
+      <c r="J46" s="195" t="s">
         <v>152</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -4613,9 +4957,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="100"/>
-      <c r="B47" s="93"/>
+    <row r="47" spans="1:17" ht="73.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="200"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="1" t="s">
         <v>157</v>
       </c>
@@ -4631,8 +4975,8 @@
       <c r="G47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="100"/>
-      <c r="J47" s="93"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="195"/>
       <c r="K47" s="1" t="s">
         <v>157</v>
       </c>
@@ -4650,10 +4994,10 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="195" t="s">
         <v>160</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4671,10 +5015,10 @@
       <c r="G48" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I48" s="104" t="s">
+      <c r="I48" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="J48" s="110" t="s">
+      <c r="J48" s="212" t="s">
         <v>160</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -4693,9 +5037,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="126" x14ac:dyDescent="0.35">
-      <c r="A49" s="92"/>
-      <c r="B49" s="93"/>
+    <row r="49" spans="1:15" ht="63" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="199"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="1" t="s">
         <v>165</v>
       </c>
@@ -4711,8 +5055,8 @@
       <c r="G49" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="105"/>
-      <c r="J49" s="111"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="213"/>
       <c r="K49" s="69" t="s">
         <v>165</v>
       </c>
@@ -4729,9 +5073,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="178.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="92"/>
-      <c r="B50" s="93"/>
+    <row r="50" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="199"/>
+      <c r="B50" s="195"/>
       <c r="C50" s="1" t="s">
         <v>168</v>
       </c>
@@ -4747,8 +5091,8 @@
       <c r="G50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="105"/>
-      <c r="J50" s="111"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="213"/>
       <c r="K50" s="69" t="s">
         <v>168</v>
       </c>
@@ -4765,9 +5109,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="A51" s="92"/>
-      <c r="B51" s="93"/>
+    <row r="51" spans="1:15" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="199"/>
+      <c r="B51" s="195"/>
       <c r="C51" s="1" t="s">
         <v>171</v>
       </c>
@@ -4783,8 +5127,8 @@
       <c r="G51" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="105"/>
-      <c r="J51" s="111"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="213"/>
       <c r="K51" s="50" t="s">
         <v>171</v>
       </c>
@@ -4801,9 +5145,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="126" x14ac:dyDescent="0.35">
-      <c r="A52" s="92"/>
-      <c r="B52" s="93" t="s">
+    <row r="52" spans="1:15" ht="126" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="199"/>
+      <c r="B52" s="195" t="s">
         <v>173</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4821,8 +5165,8 @@
       <c r="G52" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I52" s="105"/>
-      <c r="J52" s="111"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="213"/>
       <c r="K52" s="50" t="s">
         <v>174</v>
       </c>
@@ -4840,8 +5184,8 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="199"/>
+      <c r="B53" s="195"/>
       <c r="C53" s="1" t="s">
         <v>178</v>
       </c>
@@ -4857,8 +5201,8 @@
       <c r="G53" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="105"/>
-      <c r="J53" s="111"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="213"/>
       <c r="K53" s="50" t="s">
         <v>178</v>
       </c>
@@ -4875,9 +5219,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="168" x14ac:dyDescent="0.35">
-      <c r="A54" s="92"/>
-      <c r="B54" s="93"/>
+    <row r="54" spans="1:15" ht="84" x14ac:dyDescent="0.35">
+      <c r="A54" s="199"/>
+      <c r="B54" s="195"/>
       <c r="C54" s="1" t="s">
         <v>181</v>
       </c>
@@ -4893,8 +5237,8 @@
       <c r="G54" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="105"/>
-      <c r="J54" s="112"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="214"/>
       <c r="K54" s="50" t="s">
         <v>181</v>
       </c>
@@ -4912,10 +5256,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="100" t="s">
+      <c r="A55" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="195" t="s">
         <v>185</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4933,8 +5277,8 @@
       <c r="G55" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="105"/>
-      <c r="J55" s="97" t="s">
+      <c r="I55" s="203"/>
+      <c r="J55" s="177" t="s">
         <v>173</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -4954,8 +5298,8 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="100"/>
-      <c r="B56" s="93"/>
+      <c r="A56" s="200"/>
+      <c r="B56" s="195"/>
       <c r="C56" s="1" t="s">
         <v>190</v>
       </c>
@@ -4971,8 +5315,8 @@
       <c r="G56" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="I56" s="105"/>
-      <c r="J56" s="98"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="178"/>
       <c r="K56" s="1" t="s">
         <v>427</v>
       </c>
@@ -4989,9 +5333,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A57" s="100"/>
-      <c r="B57" s="93"/>
+    <row r="57" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="200"/>
+      <c r="B57" s="195"/>
       <c r="C57" s="1" t="s">
         <v>194</v>
       </c>
@@ -5005,8 +5349,8 @@
       <c r="G57" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="105"/>
-      <c r="J57" s="99"/>
+      <c r="I57" s="203"/>
+      <c r="J57" s="179"/>
       <c r="K57" s="1" t="s">
         <v>428</v>
       </c>
@@ -5023,9 +5367,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="A58" s="100"/>
-      <c r="B58" s="93"/>
+    <row r="58" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="200"/>
+      <c r="B58" s="195"/>
       <c r="C58" s="1" t="s">
         <v>197</v>
       </c>
@@ -5039,10 +5383,10 @@
       <c r="G58" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I58" s="94" t="s">
+      <c r="I58" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="J58" s="97" t="s">
+      <c r="J58" s="177" t="s">
         <v>185</v>
       </c>
       <c r="K58" s="50" t="s">
@@ -5061,9 +5405,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="A59" s="100"/>
-      <c r="B59" s="93"/>
+    <row r="59" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="200"/>
+      <c r="B59" s="195"/>
       <c r="C59" s="1" t="s">
         <v>200</v>
       </c>
@@ -5077,8 +5421,8 @@
       <c r="G59" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I59" s="95"/>
-      <c r="J59" s="98"/>
+      <c r="I59" s="181"/>
+      <c r="J59" s="178"/>
       <c r="K59" s="50" t="s">
         <v>190</v>
       </c>
@@ -5095,9 +5439,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
-      <c r="B60" s="93"/>
+    <row r="60" spans="1:15" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="200"/>
+      <c r="B60" s="195"/>
       <c r="C60" s="1" t="s">
         <v>203</v>
       </c>
@@ -5111,8 +5455,8 @@
       <c r="G60" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I60" s="96"/>
-      <c r="J60" s="99"/>
+      <c r="I60" s="216"/>
+      <c r="J60" s="179"/>
       <c r="K60" s="86" t="s">
         <v>194</v>
       </c>
@@ -5129,9 +5473,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A61" s="100"/>
-      <c r="B61" s="93"/>
+    <row r="61" spans="1:15" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="200"/>
+      <c r="B61" s="195"/>
       <c r="C61" s="1" t="s">
         <v>206</v>
       </c>
@@ -5145,10 +5489,10 @@
       <c r="G61" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I61" s="92" t="s">
+      <c r="I61" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="93" t="s">
+      <c r="J61" s="195" t="s">
         <v>210</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -5167,11 +5511,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="92" t="s">
+    <row r="62" spans="1:15" ht="31.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="195" t="s">
         <v>210</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -5189,8 +5533,8 @@
       <c r="G62" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="92"/>
-      <c r="J62" s="93"/>
+      <c r="I62" s="199"/>
+      <c r="J62" s="195"/>
       <c r="K62" s="1" t="s">
         <v>214</v>
       </c>
@@ -5208,8 +5552,8 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A63" s="92"/>
-      <c r="B63" s="93"/>
+      <c r="A63" s="199"/>
+      <c r="B63" s="195"/>
       <c r="C63" s="1" t="s">
         <v>214</v>
       </c>
@@ -5225,8 +5569,8 @@
       <c r="G63" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="92"/>
-      <c r="J63" s="93"/>
+      <c r="I63" s="199"/>
+      <c r="J63" s="195"/>
       <c r="K63" s="50" t="s">
         <v>216</v>
       </c>
@@ -5243,9 +5587,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="199.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="92"/>
-      <c r="B64" s="93"/>
+    <row r="64" spans="1:15" ht="199.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="199"/>
+      <c r="B64" s="195"/>
       <c r="C64" s="1" t="s">
         <v>216</v>
       </c>
@@ -5261,10 +5605,10 @@
       <c r="G64" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I64" s="124" t="s">
+      <c r="I64" s="190" t="s">
         <v>219</v>
       </c>
-      <c r="J64" s="93" t="s">
+      <c r="J64" s="195" t="s">
         <v>220</v>
       </c>
       <c r="K64" s="50" t="s">
@@ -5284,10 +5628,10 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="200" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="195" t="s">
         <v>220</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5305,8 +5649,8 @@
       <c r="G65" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I65" s="125"/>
-      <c r="J65" s="93"/>
+      <c r="I65" s="191"/>
+      <c r="J65" s="195"/>
       <c r="K65" s="1" t="s">
         <v>224</v>
       </c>
@@ -5324,8 +5668,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="A66" s="100"/>
-      <c r="B66" s="93"/>
+      <c r="A66" s="200"/>
+      <c r="B66" s="195"/>
       <c r="C66" s="1" t="s">
         <v>224</v>
       </c>
@@ -5341,8 +5685,8 @@
       <c r="G66" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I66" s="125"/>
-      <c r="J66" s="93"/>
+      <c r="I66" s="191"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="1" t="s">
         <v>229</v>
       </c>
@@ -5360,8 +5704,8 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="100"/>
-      <c r="B67" s="93"/>
+      <c r="A67" s="200"/>
+      <c r="B67" s="195"/>
       <c r="C67" s="1" t="s">
         <v>229</v>
       </c>
@@ -5377,8 +5721,8 @@
       <c r="G67" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I67" s="125"/>
-      <c r="J67" s="93"/>
+      <c r="I67" s="191"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="50" t="s">
         <v>234</v>
       </c>
@@ -5396,8 +5740,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="100"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="200"/>
+      <c r="B68" s="195"/>
       <c r="C68" s="1" t="s">
         <v>234</v>
       </c>
@@ -5413,8 +5757,8 @@
       <c r="G68" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="125"/>
-      <c r="J68" s="93"/>
+      <c r="I68" s="191"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="50" t="s">
         <v>237</v>
       </c>
@@ -5432,8 +5776,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="100"/>
-      <c r="B69" s="93"/>
+      <c r="A69" s="200"/>
+      <c r="B69" s="195"/>
       <c r="C69" s="1" t="s">
         <v>237</v>
       </c>
@@ -5449,8 +5793,8 @@
       <c r="G69" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I69" s="125"/>
-      <c r="J69" s="93"/>
+      <c r="I69" s="191"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="50" t="s">
         <v>239</v>
       </c>
@@ -5463,13 +5807,13 @@
       <c r="N69" s="72" t="s">
         <v>412</v>
       </c>
-      <c r="O69" s="117" t="s">
+      <c r="O69" s="93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="100"/>
-      <c r="B70" s="93"/>
+    <row r="70" spans="1:15" ht="157.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="200"/>
+      <c r="B70" s="195"/>
       <c r="C70" s="1" t="s">
         <v>239</v>
       </c>
@@ -5485,8 +5829,8 @@
       <c r="G70" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="125"/>
-      <c r="J70" s="93"/>
+      <c r="I70" s="191"/>
+      <c r="J70" s="195"/>
       <c r="K70" s="50" t="s">
         <v>241</v>
       </c>
@@ -5503,9 +5847,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="147" x14ac:dyDescent="0.35">
-      <c r="A71" s="100"/>
-      <c r="B71" s="93"/>
+    <row r="71" spans="1:15" ht="147" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="200"/>
+      <c r="B71" s="195"/>
       <c r="C71" s="1" t="s">
         <v>241</v>
       </c>
@@ -5521,9 +5865,9 @@
       <c r="G71" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I71" s="125"/>
-      <c r="J71" s="119"/>
-      <c r="K71" s="118" t="s">
+      <c r="I71" s="191"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="94" t="s">
         <v>415</v>
       </c>
       <c r="L71" s="69" t="s">
@@ -5539,11 +5883,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="147" x14ac:dyDescent="0.35">
-      <c r="A72" s="92" t="s">
+    <row r="72" spans="1:15" ht="157.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="199" t="s">
         <v>244</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="195" t="s">
         <v>245</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -5561,7 +5905,7 @@
       <c r="G72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="125"/>
+      <c r="I72" s="191"/>
       <c r="K72" s="50" t="s">
         <v>419</v>
       </c>
@@ -5578,9 +5922,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="92"/>
-      <c r="B73" s="93"/>
+    <row r="73" spans="1:15" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="199"/>
+      <c r="B73" s="195"/>
       <c r="C73" s="1" t="s">
         <v>250</v>
       </c>
@@ -5596,11 +5940,11 @@
       <c r="G73" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="I73" s="125"/>
+      <c r="I73" s="191"/>
       <c r="K73" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="L73" s="120" t="s">
+      <c r="L73" s="96" t="s">
         <v>50</v>
       </c>
       <c r="M73" s="72" t="s">
@@ -5613,11 +5957,11 @@
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="100" t="s">
+    <row r="74" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="200" t="s">
         <v>254</v>
       </c>
-      <c r="B74" s="93" t="s">
+      <c r="B74" s="195" t="s">
         <v>255</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -5635,8 +5979,8 @@
       <c r="G74" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="I74" s="126"/>
-      <c r="K74" s="121" t="s">
+      <c r="I74" s="192"/>
+      <c r="K74" s="97" t="s">
         <v>429</v>
       </c>
       <c r="L74" s="72" t="s">
@@ -5653,8 +5997,8 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="105" x14ac:dyDescent="0.35">
-      <c r="A75" s="100"/>
-      <c r="B75" s="93"/>
+      <c r="A75" s="200"/>
+      <c r="B75" s="195"/>
       <c r="C75" s="1" t="s">
         <v>261</v>
       </c>
@@ -5670,10 +6014,10 @@
       <c r="G75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="122" t="s">
+      <c r="I75" s="208" t="s">
         <v>436</v>
       </c>
-      <c r="J75" s="101" t="s">
+      <c r="J75" s="210" t="s">
         <v>432</v>
       </c>
       <c r="K75" s="50" t="s">
@@ -5693,8 +6037,8 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="147" x14ac:dyDescent="0.35">
-      <c r="A76" s="100"/>
-      <c r="B76" s="93"/>
+      <c r="A76" s="200"/>
+      <c r="B76" s="195"/>
       <c r="C76" s="1" t="s">
         <v>263</v>
       </c>
@@ -5710,8 +6054,8 @@
       <c r="G76" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="I76" s="123"/>
-      <c r="J76" s="102"/>
+      <c r="I76" s="209"/>
+      <c r="J76" s="211"/>
       <c r="K76" s="50" t="s">
         <v>250</v>
       </c>
@@ -5729,10 +6073,10 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="199" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="195" t="s">
         <v>268</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5750,10 +6094,10 @@
       <c r="G77" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="I77" s="139" t="s">
+      <c r="I77" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="J77" s="141" t="s">
+      <c r="J77" s="184" t="s">
         <v>268</v>
       </c>
       <c r="K77" s="50" t="s">
@@ -5773,8 +6117,8 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A78" s="92"/>
-      <c r="B78" s="93"/>
+      <c r="A78" s="199"/>
+      <c r="B78" s="195"/>
       <c r="C78" s="1" t="s">
         <v>273</v>
       </c>
@@ -5790,8 +6134,8 @@
       <c r="G78" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="140"/>
-      <c r="J78" s="142"/>
+      <c r="I78" s="188"/>
+      <c r="J78" s="185"/>
       <c r="K78" s="50" t="s">
         <v>273</v>
       </c>
@@ -5809,8 +6153,8 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A79" s="92"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="199"/>
+      <c r="B79" s="195"/>
       <c r="C79" s="1" t="s">
         <v>276</v>
       </c>
@@ -5826,29 +6170,29 @@
       <c r="G79" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="140"/>
-      <c r="J79" s="142"/>
+      <c r="I79" s="188"/>
+      <c r="J79" s="185"/>
       <c r="K79" s="50" t="s">
         <v>443</v>
       </c>
       <c r="L79" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M79" s="133" t="s">
+      <c r="M79" s="101" t="s">
         <v>444</v>
       </c>
-      <c r="N79" s="136" t="s">
+      <c r="N79" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="O79" s="134" t="s">
+      <c r="O79" s="102" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="84" x14ac:dyDescent="0.35">
-      <c r="A80" s="100" t="s">
+      <c r="A80" s="200" t="s">
         <v>279</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="195" t="s">
         <v>280</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5866,8 +6210,8 @@
       <c r="G80" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="140"/>
-      <c r="J80" s="142"/>
+      <c r="I80" s="188"/>
+      <c r="J80" s="185"/>
       <c r="K80" s="50" t="s">
         <v>448</v>
       </c>
@@ -5877,16 +6221,16 @@
       <c r="M80" s="68" t="s">
         <v>447</v>
       </c>
-      <c r="N80" s="136" t="s">
+      <c r="N80" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="O80" s="136" t="s">
+      <c r="O80" s="103" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="105" x14ac:dyDescent="0.35">
-      <c r="A81" s="100"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="200"/>
+      <c r="B81" s="195"/>
       <c r="C81" s="1" t="s">
         <v>284</v>
       </c>
@@ -5902,9 +6246,9 @@
       <c r="G81" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="140"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="137" t="s">
+      <c r="I81" s="188"/>
+      <c r="J81" s="185"/>
+      <c r="K81" s="104" t="s">
         <v>450</v>
       </c>
       <c r="L81" s="83" t="s">
@@ -5920,9 +6264,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="100"/>
-      <c r="B82" s="93"/>
+    <row r="82" spans="1:17" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="200"/>
+      <c r="B82" s="195"/>
       <c r="C82" s="1" t="s">
         <v>287</v>
       </c>
@@ -5938,9 +6282,9 @@
       <c r="G82" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I82" s="140"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="137" t="s">
+      <c r="I82" s="188"/>
+      <c r="J82" s="185"/>
+      <c r="K82" s="104" t="s">
         <v>455</v>
       </c>
       <c r="L82" s="83" t="s">
@@ -5956,9 +6300,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="A83" s="100"/>
-      <c r="B83" s="93"/>
+    <row r="83" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="200"/>
+      <c r="B83" s="195"/>
       <c r="C83" s="1" t="s">
         <v>290</v>
       </c>
@@ -5974,9 +6318,9 @@
       <c r="G83" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="I83" s="144"/>
-      <c r="J83" s="143"/>
-      <c r="K83" s="137" t="s">
+      <c r="I83" s="189"/>
+      <c r="J83" s="186"/>
+      <c r="K83" s="104" t="s">
         <v>460</v>
       </c>
       <c r="L83" s="83" t="s">
@@ -5992,9 +6336,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="210" x14ac:dyDescent="0.35">
-      <c r="A84" s="100"/>
-      <c r="B84" s="93"/>
+    <row r="84" spans="1:17" ht="220.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="200"/>
+      <c r="B84" s="195"/>
       <c r="C84" s="1" t="s">
         <v>294</v>
       </c>
@@ -6010,31 +6354,31 @@
       <c r="G84" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="I84" s="124" t="s">
+      <c r="I84" s="190" t="s">
         <v>279</v>
       </c>
-      <c r="J84" s="141" t="s">
+      <c r="J84" s="184" t="s">
         <v>280</v>
       </c>
       <c r="K84" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="L84" s="138" t="s">
+      <c r="L84" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="M84" s="138" t="s">
+      <c r="M84" s="105" t="s">
         <v>462</v>
       </c>
       <c r="N84" s="68" t="s">
         <v>466</v>
       </c>
-      <c r="O84" s="145" t="s">
+      <c r="O84" s="106" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="126" x14ac:dyDescent="0.35">
-      <c r="A85" s="100"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="200"/>
+      <c r="B85" s="195"/>
       <c r="C85" s="1" t="s">
         <v>298</v>
       </c>
@@ -6050,8 +6394,8 @@
       <c r="G85" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I85" s="125"/>
-      <c r="J85" s="142"/>
+      <c r="I85" s="191"/>
+      <c r="J85" s="185"/>
       <c r="K85" s="50" t="s">
         <v>284</v>
       </c>
@@ -6068,11 +6412,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="92" t="s">
+    <row r="86" spans="1:17" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="199" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="195" t="s">
         <v>302</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -6086,8 +6430,8 @@
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="17"/>
-      <c r="I86" s="125"/>
-      <c r="J86" s="142"/>
+      <c r="I86" s="191"/>
+      <c r="J86" s="185"/>
       <c r="K86" s="1" t="s">
         <v>287</v>
       </c>
@@ -6100,13 +6444,13 @@
       <c r="N86" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="O86" s="146" t="s">
+      <c r="O86" s="107" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="92"/>
-      <c r="B87" s="93"/>
+      <c r="A87" s="199"/>
+      <c r="B87" s="195"/>
       <c r="C87" s="9" t="s">
         <v>305</v>
       </c>
@@ -6122,15 +6466,15 @@
       <c r="G87" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I87" s="125"/>
-      <c r="J87" s="142"/>
+      <c r="I87" s="191"/>
+      <c r="J87" s="185"/>
       <c r="K87" s="50" t="s">
         <v>290</v>
       </c>
       <c r="L87" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="M87" s="147" t="s">
+      <c r="M87" s="108" t="s">
         <v>467</v>
       </c>
       <c r="N87" s="72" t="s">
@@ -6141,8 +6485,8 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="63" x14ac:dyDescent="0.35">
-      <c r="A88" s="92"/>
-      <c r="B88" s="93"/>
+      <c r="A88" s="199"/>
+      <c r="B88" s="195"/>
       <c r="C88" s="1" t="s">
         <v>308</v>
       </c>
@@ -6158,15 +6502,15 @@
       <c r="G88" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I88" s="125"/>
-      <c r="J88" s="142"/>
+      <c r="I88" s="191"/>
+      <c r="J88" s="185"/>
       <c r="K88" s="50" t="s">
         <v>294</v>
       </c>
       <c r="L88" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M88" s="147" t="s">
+      <c r="M88" s="108" t="s">
         <v>469</v>
       </c>
       <c r="N88" s="72" t="s">
@@ -6177,8 +6521,8 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="178.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="92"/>
-      <c r="B89" s="93"/>
+      <c r="A89" s="199"/>
+      <c r="B89" s="195"/>
       <c r="C89" s="9" t="s">
         <v>310</v>
       </c>
@@ -6194,29 +6538,29 @@
       <c r="G89" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I89" s="125"/>
-      <c r="J89" s="142"/>
+      <c r="I89" s="191"/>
+      <c r="J89" s="185"/>
       <c r="K89" s="50" t="s">
         <v>298</v>
       </c>
       <c r="L89" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M89" s="147" t="s">
+      <c r="M89" s="108" t="s">
         <v>471</v>
       </c>
       <c r="N89" s="72" t="s">
         <v>472</v>
       </c>
-      <c r="O89" s="148" t="s">
+      <c r="O89" s="17" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="210" x14ac:dyDescent="0.35">
-      <c r="A90" s="100" t="s">
+      <c r="A90" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="93" t="s">
+      <c r="B90" s="195" t="s">
         <v>313</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -6230,8 +6574,8 @@
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="17"/>
-      <c r="I90" s="125"/>
-      <c r="J90" s="142"/>
+      <c r="I90" s="191"/>
+      <c r="J90" s="185"/>
       <c r="K90" s="50" t="s">
         <v>477</v>
       </c>
@@ -6249,8 +6593,8 @@
       </c>
     </row>
     <row r="91" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="100"/>
-      <c r="B91" s="93"/>
+      <c r="A91" s="200"/>
+      <c r="B91" s="195"/>
       <c r="C91" s="1" t="s">
         <v>316</v>
       </c>
@@ -6266,8 +6610,8 @@
       <c r="G91" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I91" s="125"/>
-      <c r="J91" s="142"/>
+      <c r="I91" s="191"/>
+      <c r="J91" s="185"/>
       <c r="K91" s="50" t="s">
         <v>478</v>
       </c>
@@ -6283,11 +6627,11 @@
       <c r="O91" s="89" t="s">
         <v>476</v>
       </c>
-      <c r="Q91" s="116"/>
+      <c r="Q91" s="92"/>
     </row>
     <row r="92" spans="1:17" ht="168.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="107"/>
-      <c r="B92" s="115"/>
+      <c r="A92" s="201"/>
+      <c r="B92" s="196"/>
       <c r="C92" s="4" t="s">
         <v>319</v>
       </c>
@@ -6303,8 +6647,8 @@
       <c r="G92" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="I92" s="126"/>
-      <c r="J92" s="143"/>
+      <c r="I92" s="192"/>
+      <c r="J92" s="186"/>
       <c r="K92" s="1" t="s">
         <v>479</v>
       </c>
@@ -6320,13 +6664,13 @@
       <c r="O92" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="Q92" s="116"/>
-    </row>
-    <row r="93" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="I93" s="135" t="s">
+      <c r="Q92" s="92"/>
+    </row>
+    <row r="93" spans="1:17" ht="52.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I93" s="174" t="s">
         <v>301</v>
       </c>
-      <c r="J93" s="97" t="s">
+      <c r="J93" s="177" t="s">
         <v>302</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -6340,11 +6684,11 @@
       </c>
       <c r="N93" s="27"/>
       <c r="O93" s="17"/>
-      <c r="Q93" s="116"/>
+      <c r="Q93" s="92"/>
     </row>
     <row r="94" spans="1:17" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="I94" s="149"/>
-      <c r="J94" s="98"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="178"/>
       <c r="K94" s="9" t="s">
         <v>305</v>
       </c>
@@ -6360,11 +6704,11 @@
       <c r="O94" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Q94" s="116"/>
+      <c r="Q94" s="92"/>
     </row>
     <row r="95" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I95" s="149"/>
-      <c r="J95" s="98"/>
+      <c r="I95" s="175"/>
+      <c r="J95" s="178"/>
       <c r="K95" s="1" t="s">
         <v>308</v>
       </c>
@@ -6380,11 +6724,11 @@
       <c r="O95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q95" s="116"/>
-    </row>
-    <row r="96" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I96" s="150"/>
-      <c r="J96" s="99"/>
+      <c r="Q95" s="92"/>
+    </row>
+    <row r="96" spans="1:17" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I96" s="176"/>
+      <c r="J96" s="179"/>
       <c r="K96" s="9" t="s">
         <v>310</v>
       </c>
@@ -6400,13 +6744,13 @@
       <c r="O96" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q96" s="116"/>
-    </row>
-    <row r="97" spans="9:17" ht="42" x14ac:dyDescent="0.35">
-      <c r="I97" s="94" t="s">
+      <c r="Q96" s="92"/>
+    </row>
+    <row r="97" spans="9:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I97" s="180" t="s">
         <v>312</v>
       </c>
-      <c r="J97" s="97" t="s">
+      <c r="J97" s="177" t="s">
         <v>313</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -6424,11 +6768,11 @@
       <c r="O97" s="71" t="s">
         <v>484</v>
       </c>
-      <c r="Q97" s="116"/>
+      <c r="Q97" s="92"/>
     </row>
     <row r="98" spans="9:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="I98" s="95"/>
-      <c r="J98" s="98"/>
+      <c r="I98" s="181"/>
+      <c r="J98" s="178"/>
       <c r="K98" s="1" t="s">
         <v>316</v>
       </c>
@@ -6444,11 +6788,11 @@
       <c r="O98" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q98" s="116"/>
+      <c r="Q98" s="92"/>
     </row>
     <row r="99" spans="9:17" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I99" s="151"/>
-      <c r="J99" s="152"/>
+      <c r="I99" s="182"/>
+      <c r="J99" s="183"/>
       <c r="K99" s="4" t="s">
         <v>319</v>
       </c>
@@ -6464,29 +6808,85 @@
       <c r="O99" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="Q99" s="116"/>
+      <c r="Q99" s="92"/>
     </row>
     <row r="100" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="Q100" s="116"/>
+      <c r="Q100" s="92"/>
     </row>
     <row r="101" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="Q101" s="116"/>
+      <c r="Q101" s="92"/>
     </row>
     <row r="102" spans="9:17" x14ac:dyDescent="0.35">
       <c r="Q102" s="84"/>
     </row>
   </sheetData>
+  <autoFilter ref="I5:O99" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="obligatoire"/>
+        <filter val="obligatoire si décédé"/>
+        <filter val="obligatroie"/>
+        <filter val="Optionnel mais obligatoire dans le cas d’évènements métastatiques"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="80">
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="J77:J83"/>
-    <mergeCell ref="I77:I83"/>
-    <mergeCell ref="I84:I92"/>
-    <mergeCell ref="J84:J92"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="I64:I74"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I31:I47"/>
+    <mergeCell ref="J31:J37"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J39:J45"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I48:I57"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="J64:J70"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I16:I20"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A31:A47"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="B90:B92"/>
     <mergeCell ref="B80:B85"/>
@@ -6503,60 +6903,14 @@
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A31:A47"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="I48:I57"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="I64:I74"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I31:I47"/>
-    <mergeCell ref="J31:J37"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J39:J45"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J64:J70"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="J77:J83"/>
+    <mergeCell ref="I77:I83"/>
+    <mergeCell ref="I84:I92"/>
+    <mergeCell ref="J84:J92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G92" r:id="rId1" display="https://www.ameli.fr/accueil-de-la-ccam/index.php" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6596,10 +6950,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="195" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="29" t="s">
@@ -6619,8 +6973,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.35">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6638,8 +6992,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="195"/>
       <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
@@ -6657,8 +7011,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="195"/>
       <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
@@ -6676,10 +7030,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="195" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6699,8 +7053,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A6" s="100"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="200"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="1" t="s">
         <v>107</v>
       </c>
@@ -6718,8 +7072,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A7" s="100"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="35" t="s">
         <v>110</v>
       </c>
@@ -6737,8 +7091,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="100"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="35" t="s">
         <v>113</v>
       </c>
@@ -6756,8 +7110,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="1" t="s">
         <v>117</v>
       </c>
@@ -6775,8 +7129,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="100"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
@@ -6794,8 +7148,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="200"/>
+      <c r="B11" s="195" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6815,8 +7169,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="100"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="1" t="s">
         <v>130</v>
       </c>
@@ -6834,8 +7188,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="100"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="200"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="1" t="s">
         <v>133</v>
       </c>
@@ -6853,8 +7207,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="100"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="200"/>
+      <c r="B14" s="195"/>
       <c r="C14" s="1" t="s">
         <v>136</v>
       </c>
@@ -6872,8 +7226,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="200"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="1" t="s">
         <v>140</v>
       </c>
@@ -6891,8 +7245,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="100"/>
-      <c r="B16" s="93" t="s">
+      <c r="A16" s="200"/>
+      <c r="B16" s="195" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -6912,8 +7266,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="100"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="200"/>
+      <c r="B17" s="195"/>
       <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
@@ -6931,8 +7285,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="100"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="200"/>
+      <c r="B18" s="195" t="s">
         <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6952,8 +7306,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="100"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="200"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="29" t="s">
         <v>157</v>
       </c>
@@ -6971,10 +7325,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="84" x14ac:dyDescent="0.35">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="200" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="195" t="s">
         <v>280</v>
       </c>
       <c r="C20" s="29" t="s">
@@ -6994,8 +7348,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.35">
-      <c r="A21" s="100"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="200"/>
+      <c r="B21" s="195"/>
       <c r="C21" s="1" t="s">
         <v>284</v>
       </c>
@@ -7013,8 +7367,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="100"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="200"/>
+      <c r="B22" s="195"/>
       <c r="C22" s="29" t="s">
         <v>287</v>
       </c>
@@ -7032,8 +7386,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="A23" s="100"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="200"/>
+      <c r="B23" s="195"/>
       <c r="C23" s="29" t="s">
         <v>290</v>
       </c>
@@ -7051,8 +7405,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="378" x14ac:dyDescent="0.35">
-      <c r="A24" s="100"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="195"/>
       <c r="C24" s="29" t="s">
         <v>294</v>
       </c>
@@ -7070,8 +7424,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="126" x14ac:dyDescent="0.35">
-      <c r="A25" s="100"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="195"/>
       <c r="C25" s="1" t="s">
         <v>298</v>
       </c>
@@ -7111,6 +7465,1883 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C31F6-56D4-4DE1-8ADD-2BAF892AD134}">
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="193" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A3" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="217"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="217"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.35">
+      <c r="A7" s="219" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="219"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="219"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="219"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="220" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="217"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="221" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="220" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A14" s="222"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="222"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="222"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="223"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="205"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="206"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="207"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A21" s="219" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" s="218" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="133" t="s">
+        <v>357</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="219"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="219"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="118" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="217" t="s">
+        <v>434</v>
+      </c>
+      <c r="B24" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" s="118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="217"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="123" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="217"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="136" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" s="122" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="219" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="218" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="122"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="219"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="122"/>
+    </row>
+    <row r="30" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="219"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="123" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="219"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="125" t="s">
+        <v>366</v>
+      </c>
+      <c r="F31" s="123" t="s">
+        <v>367</v>
+      </c>
+      <c r="G31" s="137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="219"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="219"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="219"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="219"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="143" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="219"/>
+      <c r="B36" s="224" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>371</v>
+      </c>
+      <c r="F36" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="219"/>
+      <c r="B37" s="225"/>
+      <c r="C37" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="125" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="219"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="125" t="s">
+        <v>372</v>
+      </c>
+      <c r="F38" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="219"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A40" s="219"/>
+      <c r="B40" s="225"/>
+      <c r="C40" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="219"/>
+      <c r="B41" s="225"/>
+      <c r="C41" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A42" s="219"/>
+      <c r="B42" s="226"/>
+      <c r="C42" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A43" s="219"/>
+      <c r="B43" s="218" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A44" s="219"/>
+      <c r="B44" s="218"/>
+      <c r="C44" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="199.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="227" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="229" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="133" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="228"/>
+      <c r="B46" s="230"/>
+      <c r="C46" s="131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="131" t="s">
+        <v>376</v>
+      </c>
+      <c r="F46" s="131" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="147" x14ac:dyDescent="0.35">
+      <c r="A47" s="228"/>
+      <c r="B47" s="230"/>
+      <c r="C47" s="131" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="131" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" s="129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A48" s="228"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="126" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="146" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A49" s="228"/>
+      <c r="B49" s="230"/>
+      <c r="C49" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="126" t="s">
+        <v>381</v>
+      </c>
+      <c r="F49" s="126" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" s="126" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="228"/>
+      <c r="B50" s="230"/>
+      <c r="C50" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="126" t="s">
+        <v>383</v>
+      </c>
+      <c r="F50" s="126" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" s="126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="228"/>
+      <c r="B51" s="231"/>
+      <c r="C51" s="124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="131" t="s">
+        <v>386</v>
+      </c>
+      <c r="F51" s="126" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" s="126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="228"/>
+      <c r="B52" s="232" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="D52" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="228"/>
+      <c r="B53" s="233"/>
+      <c r="C53" s="114" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="133" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="228"/>
+      <c r="B54" s="234"/>
+      <c r="C54" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="D54" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="133" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="235" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="232" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="125" t="s">
+        <v>390</v>
+      </c>
+      <c r="F55" s="123" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="122" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A56" s="236"/>
+      <c r="B56" s="233"/>
+      <c r="C56" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="125" t="s">
+        <v>393</v>
+      </c>
+      <c r="F56" s="123" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" s="122" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A57" s="237"/>
+      <c r="B57" s="234"/>
+      <c r="C57" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="151" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" s="123" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="217" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="218" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A59" s="217"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" s="141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="217"/>
+      <c r="B60" s="218"/>
+      <c r="C60" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="125" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="123" t="s">
+        <v>400</v>
+      </c>
+      <c r="G60" s="172" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="221" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="218" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="124" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="125" t="s">
+        <v>402</v>
+      </c>
+      <c r="F61" s="123" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" s="152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="222"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" s="123" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="222"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="133" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="118" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+      <c r="A64" s="222"/>
+      <c r="B64" s="218"/>
+      <c r="C64" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="125" t="s">
+        <v>405</v>
+      </c>
+      <c r="F64" s="123" t="s">
+        <v>406</v>
+      </c>
+      <c r="G64" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="126" x14ac:dyDescent="0.35">
+      <c r="A65" s="222"/>
+      <c r="B65" s="218"/>
+      <c r="C65" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="125" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="G65" s="173" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="222"/>
+      <c r="B66" s="218"/>
+      <c r="C66" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="125" t="s">
+        <v>411</v>
+      </c>
+      <c r="F66" s="123" t="s">
+        <v>412</v>
+      </c>
+      <c r="G66" s="93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="273" x14ac:dyDescent="0.35">
+      <c r="A67" s="222"/>
+      <c r="B67" s="218"/>
+      <c r="C67" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="123" t="s">
+        <v>413</v>
+      </c>
+      <c r="F67" s="123" t="s">
+        <v>414</v>
+      </c>
+      <c r="G67" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="252" x14ac:dyDescent="0.35">
+      <c r="A68" s="222"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="153" t="s">
+        <v>415</v>
+      </c>
+      <c r="D68" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="123" t="s">
+        <v>416</v>
+      </c>
+      <c r="F68" s="123" t="s">
+        <v>417</v>
+      </c>
+      <c r="G68" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="252" x14ac:dyDescent="0.35">
+      <c r="A69" s="222"/>
+      <c r="C69" s="124" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="123" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" s="123" t="s">
+        <v>420</v>
+      </c>
+      <c r="G69" s="122" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="222"/>
+      <c r="C70" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="D70" s="154" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="123" t="s">
+        <v>422</v>
+      </c>
+      <c r="F70" s="123" t="s">
+        <v>424</v>
+      </c>
+      <c r="G70" s="122" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A71" s="223"/>
+      <c r="C71" s="155" t="s">
+        <v>429</v>
+      </c>
+      <c r="D71" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="123" t="s">
+        <v>430</v>
+      </c>
+      <c r="F71" s="123" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" s="122" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="168" x14ac:dyDescent="0.35">
+      <c r="A72" s="243" t="s">
+        <v>436</v>
+      </c>
+      <c r="B72" s="224" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="156" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="125" t="s">
+        <v>437</v>
+      </c>
+      <c r="F72" s="123" t="s">
+        <v>438</v>
+      </c>
+      <c r="G72" s="122" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="157.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="244"/>
+      <c r="B73" s="225"/>
+      <c r="C73" s="124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="F73" s="123" t="s">
+        <v>441</v>
+      </c>
+      <c r="G73" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="63" x14ac:dyDescent="0.35">
+      <c r="A74" s="245" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="248" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="125" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" s="123" t="s">
+        <v>442</v>
+      </c>
+      <c r="G74" s="143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="246"/>
+      <c r="B75" s="249"/>
+      <c r="C75" s="124" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="F75" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="G75" s="143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="246"/>
+      <c r="B76" s="249"/>
+      <c r="C76" s="124" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="157" t="s">
+        <v>444</v>
+      </c>
+      <c r="F76" s="158" t="s">
+        <v>445</v>
+      </c>
+      <c r="G76" s="159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+      <c r="A77" s="246"/>
+      <c r="B77" s="249"/>
+      <c r="C77" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="D77" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="126" t="s">
+        <v>447</v>
+      </c>
+      <c r="F77" s="158" t="s">
+        <v>451</v>
+      </c>
+      <c r="G77" s="158" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A78" s="246"/>
+      <c r="B78" s="249"/>
+      <c r="C78" s="160" t="s">
+        <v>450</v>
+      </c>
+      <c r="D78" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="125" t="s">
+        <v>449</v>
+      </c>
+      <c r="F78" s="126" t="s">
+        <v>452</v>
+      </c>
+      <c r="G78" s="126" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+      <c r="A79" s="246"/>
+      <c r="B79" s="249"/>
+      <c r="C79" s="160" t="s">
+        <v>455</v>
+      </c>
+      <c r="D79" s="146" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="125" t="s">
+        <v>454</v>
+      </c>
+      <c r="F79" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="G79" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="247"/>
+      <c r="B80" s="250"/>
+      <c r="C80" s="160" t="s">
+        <v>460</v>
+      </c>
+      <c r="D80" s="146" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="F80" s="126" t="s">
+        <v>461</v>
+      </c>
+      <c r="G80" s="126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="367.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="221" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" s="248" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="161" t="s">
+        <v>463</v>
+      </c>
+      <c r="E81" s="161" t="s">
+        <v>462</v>
+      </c>
+      <c r="F81" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="G81" s="162" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="105" x14ac:dyDescent="0.35">
+      <c r="A82" s="222"/>
+      <c r="B82" s="249"/>
+      <c r="C82" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="126" t="s">
+        <v>465</v>
+      </c>
+      <c r="G82" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+      <c r="A83" s="222"/>
+      <c r="B83" s="249"/>
+      <c r="C83" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="G83" s="163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A84" s="222"/>
+      <c r="B84" s="249"/>
+      <c r="C84" s="124" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="164" t="s">
+        <v>467</v>
+      </c>
+      <c r="F84" s="123" t="s">
+        <v>468</v>
+      </c>
+      <c r="G84" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+      <c r="A85" s="222"/>
+      <c r="B85" s="249"/>
+      <c r="C85" s="124" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="164" t="s">
+        <v>469</v>
+      </c>
+      <c r="F85" s="123" t="s">
+        <v>470</v>
+      </c>
+      <c r="G85" s="122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="283.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="222"/>
+      <c r="B86" s="249"/>
+      <c r="C86" s="124" t="s">
+        <v>298</v>
+      </c>
+      <c r="D86" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="164" t="s">
+        <v>471</v>
+      </c>
+      <c r="F86" s="123" t="s">
+        <v>472</v>
+      </c>
+      <c r="G86" s="118" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="222"/>
+      <c r="B87" s="249"/>
+      <c r="C87" s="124" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="125" t="s">
+        <v>475</v>
+      </c>
+      <c r="F87" s="123" t="s">
+        <v>481</v>
+      </c>
+      <c r="G87" s="152" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="222"/>
+      <c r="B88" s="249"/>
+      <c r="C88" s="124" t="s">
+        <v>478</v>
+      </c>
+      <c r="D88" s="142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="125" t="s">
+        <v>474</v>
+      </c>
+      <c r="F88" s="123" t="s">
+        <v>482</v>
+      </c>
+      <c r="G88" s="172" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="262.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="223"/>
+      <c r="B89" s="250"/>
+      <c r="C89" s="114" t="s">
+        <v>479</v>
+      </c>
+      <c r="D89" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="F89" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="G89" s="123" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A90" s="238" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" s="232" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="165"/>
+      <c r="G90" s="118"/>
+    </row>
+    <row r="91" spans="1:7" ht="84" x14ac:dyDescent="0.35">
+      <c r="A91" s="239"/>
+      <c r="B91" s="233"/>
+      <c r="C91" s="166" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="133" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="167" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="239"/>
+      <c r="B92" s="233"/>
+      <c r="C92" s="114" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="G92" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="240"/>
+      <c r="B93" s="234"/>
+      <c r="C93" s="166" t="s">
+        <v>310</v>
+      </c>
+      <c r="D93" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="G93" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="A94" s="235" t="s">
+        <v>312</v>
+      </c>
+      <c r="B94" s="232" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="133" t="s">
+        <v>315</v>
+      </c>
+      <c r="F94" s="123" t="s">
+        <v>483</v>
+      </c>
+      <c r="G94" s="122" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="236"/>
+      <c r="B95" s="233"/>
+      <c r="C95" s="114" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="133" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G95" s="118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="241"/>
+      <c r="B96" s="242"/>
+      <c r="C96" s="168" t="s">
+        <v>319</v>
+      </c>
+      <c r="D96" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="170" t="s">
+        <v>320</v>
+      </c>
+      <c r="F96" s="171" t="s">
+        <v>321</v>
+      </c>
+      <c r="G96" s="118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="B81:B89"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G33" r:id="rId1" display="http://codes.iarc.fr/codegroup/2" xr:uid="{9F05BDF5-411C-4BCE-8F28-795EC9E506F5}"/>
+    <hyperlink ref="G32" r:id="rId2" display="http://codes.iarc.fr/topography" xr:uid="{9D1F18CB-FBFB-4EBB-81C2-5C1FA2F7298C}"/>
+    <hyperlink ref="G21" r:id="rId3" display="http://codes.iarc.fr/topography" xr:uid="{94E1FE6B-2449-4332-A8BB-6417942C0DE5}"/>
+    <hyperlink ref="G6" r:id="rId4" display="http://hl7.org/fhir/v3/AdministrativeGender/cs.html" xr:uid="{2EEA23F1-89D9-489B-82F4-BE4E4B05D470}"/>
+    <hyperlink ref="G4" r:id="rId5" display="http://finess.sante.gouv.fr/fininter/jsp/index.jsp" xr:uid="{B684EE4D-7AFE-4E7A-A25F-32B63665FFDA}"/>
+    <hyperlink ref="G91" r:id="rId6" display="http://apps.who.int/classifications/icd10/browse/2016/en" xr:uid="{B1D9A780-C898-4900-A474-AEF1CEA91CF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7123,17 +9354,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CB9D072074C284BA25006FEB87DE83C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5fc8a0824431afb432fbce8b587e445c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fbe4bbf6-5293-447a-a5f2-34aaa83ce23f" xmlns:ns3="118c9c2b-c1ab-4af2-a9d6-b8398d585353" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="324e25f759c4eb888b4ce582fd06f41a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CB9D072074C284BA25006FEB87DE83C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c51aab08e254ed32df25df87bdfdb1bc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fbe4bbf6-5293-447a-a5f2-34aaa83ce23f" xmlns:ns3="118c9c2b-c1ab-4af2-a9d6-b8398d585353" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e92b68a6e025f3c551c1170649eabdf8" ns2:_="" ns3:_="">
     <xsd:import namespace="fbe4bbf6-5293-447a-a5f2-34aaa83ce23f"/>
     <xsd:import namespace="118c9c2b-c1ab-4af2-a9d6-b8398d585353"/>
     <xsd:element name="properties">
@@ -7360,6 +9582,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{586BA9AD-6C0B-4758-862B-9DC464657C23}">
   <ds:schemaRefs>
@@ -7372,15 +9603,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF06423C-EAF5-46CE-A314-CC36D7961C24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F742E551-E149-4940-B099-5BC33D95E287}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4ED865A-0517-4715-9370-F4EE8FB36028}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7396,4 +9619,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF06423C-EAF5-46CE-A314-CC36D7961C24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>